--- a/raw_data/20200818_saline/20200818_Sensor0_Test_21.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_21.xlsx
@@ -1,613 +1,1029 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D2893A-08C6-4192-BC62-D29E520C7FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>18002.914920</v>
+        <v>18002.914919999999</v>
       </c>
       <c r="B2" s="1">
-        <v>5.000810</v>
+        <v>5.0008100000000004</v>
       </c>
       <c r="C2" s="1">
-        <v>899.018000</v>
+        <v>899.01800000000003</v>
       </c>
       <c r="D2" s="1">
-        <v>-193.960000</v>
+        <v>-193.96</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>18013.018427</v>
+        <v>18013.018426999999</v>
       </c>
       <c r="G2" s="1">
-        <v>5.003616</v>
+        <v>5.0036160000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>915.482000</v>
+        <v>915.48199999999997</v>
       </c>
       <c r="I2" s="1">
-        <v>-164.307000</v>
+        <v>-164.30699999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>18023.095647</v>
+        <v>18023.095646999998</v>
       </c>
       <c r="L2" s="1">
-        <v>5.006415</v>
+        <v>5.0064149999999996</v>
       </c>
       <c r="M2" s="1">
-        <v>936.775000</v>
+        <v>936.77499999999998</v>
       </c>
       <c r="N2" s="1">
-        <v>-117.544000</v>
+        <v>-117.544</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>18033.274544</v>
       </c>
       <c r="Q2" s="1">
-        <v>5.009243</v>
+        <v>5.0092429999999997</v>
       </c>
       <c r="R2" s="1">
-        <v>943.007000</v>
+        <v>943.00699999999995</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.461000</v>
+        <v>-102.461</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>18043.849748</v>
+        <v>18043.849748000001</v>
       </c>
       <c r="V2" s="1">
-        <v>5.012180</v>
+        <v>5.0121799999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>949.228000</v>
+        <v>949.22799999999995</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.025200</v>
+        <v>-89.025199999999998</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>18054.303462</v>
       </c>
       <c r="AA2" s="1">
-        <v>5.015084</v>
+        <v>5.0150839999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>956.192000</v>
+        <v>956.19200000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.000600</v>
+        <v>-80.000600000000006</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>18064.584535</v>
+        <v>18064.584535000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>5.017940</v>
+        <v>5.0179400000000003</v>
       </c>
       <c r="AG2" s="1">
-        <v>961.091000</v>
+        <v>961.09100000000001</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.792300</v>
+        <v>-79.792299999999997</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>18075.011899</v>
+        <v>18075.011899000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>5.020837</v>
+        <v>5.0208370000000002</v>
       </c>
       <c r="AL2" s="1">
-        <v>969.085000</v>
+        <v>969.08500000000004</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.943900</v>
+        <v>-87.943899999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>18085.571227</v>
       </c>
       <c r="AP2" s="1">
-        <v>5.023770</v>
+        <v>5.0237699999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>978.352000</v>
+        <v>978.35199999999998</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.258000</v>
+        <v>-103.258</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>18096.601757</v>
@@ -616,542 +1032,542 @@
         <v>5.026834</v>
       </c>
       <c r="AV2" s="1">
-        <v>989.874000</v>
+        <v>989.87400000000002</v>
       </c>
       <c r="AW2" s="1">
-        <v>-125.177000</v>
+        <v>-125.17700000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>18107.404623</v>
+        <v>18107.404622999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>5.029835</v>
+        <v>5.0298350000000003</v>
       </c>
       <c r="BA2" s="1">
-        <v>999.581000</v>
+        <v>999.58100000000002</v>
       </c>
       <c r="BB2" s="1">
-        <v>-144.133000</v>
+        <v>-144.13300000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>18118.775407</v>
+        <v>18118.775407000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>5.032993</v>
+        <v>5.0329930000000003</v>
       </c>
       <c r="BF2" s="1">
-        <v>1045.310000</v>
+        <v>1045.31</v>
       </c>
       <c r="BG2" s="1">
-        <v>-229.952000</v>
+        <v>-229.952</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>18129.904144</v>
       </c>
       <c r="BJ2" s="1">
-        <v>5.036084</v>
+        <v>5.0360839999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1125.440000</v>
+        <v>1125.44</v>
       </c>
       <c r="BL2" s="1">
-        <v>-367.566000</v>
+        <v>-367.56599999999997</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>18141.309649</v>
+        <v>18141.309648999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>5.039253</v>
+        <v>5.0392530000000004</v>
       </c>
       <c r="BP2" s="1">
-        <v>1257.890000</v>
+        <v>1257.8900000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-580.500000</v>
+        <v>-580.5</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>18152.482036</v>
+        <v>18152.482036000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>5.042356</v>
+        <v>5.0423559999999998</v>
       </c>
       <c r="BU2" s="1">
-        <v>1406.840000</v>
+        <v>1406.84</v>
       </c>
       <c r="BV2" s="1">
-        <v>-808.529000</v>
+        <v>-808.529</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>18163.441140</v>
+        <v>18163.441139999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>5.045400</v>
+        <v>5.0453999999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1570.650000</v>
+        <v>1570.65</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1045.860000</v>
+        <v>-1045.8599999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>18174.535655</v>
       </c>
       <c r="CD2" s="1">
-        <v>5.048482</v>
+        <v>5.0484819999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1986.600000</v>
+        <v>1986.6</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1601.000000</v>
+        <v>-1601</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>18003.319160</v>
+        <v>18003.319159999999</v>
       </c>
       <c r="B3" s="1">
-        <v>5.000922</v>
+        <v>5.0009220000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>899.055000</v>
+        <v>899.05499999999995</v>
       </c>
       <c r="D3" s="1">
-        <v>-194.052000</v>
+        <v>-194.05199999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>18013.362165</v>
+        <v>18013.362164999999</v>
       </c>
       <c r="G3" s="1">
-        <v>5.003712</v>
+        <v>5.0037120000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>915.336000</v>
+        <v>915.33600000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-164.318000</v>
+        <v>-164.31800000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>18023.481073</v>
+        <v>18023.481072999999</v>
       </c>
       <c r="L3" s="1">
-        <v>5.006523</v>
+        <v>5.0065229999999996</v>
       </c>
       <c r="M3" s="1">
-        <v>936.654000</v>
+        <v>936.654</v>
       </c>
       <c r="N3" s="1">
-        <v>-117.471000</v>
+        <v>-117.471</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>18033.694656</v>
       </c>
       <c r="Q3" s="1">
-        <v>5.009360</v>
+        <v>5.00936</v>
       </c>
       <c r="R3" s="1">
-        <v>942.928000</v>
+        <v>942.928</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.486000</v>
+        <v>-102.486</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>18044.265394</v>
+        <v>18044.265393999998</v>
       </c>
       <c r="V3" s="1">
-        <v>5.012296</v>
+        <v>5.0122960000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>949.180000</v>
+        <v>949.18</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.052000</v>
+        <v>-89.052000000000007</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>18054.411556</v>
+        <v>18054.411555999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>5.015114</v>
+        <v>5.0151139999999996</v>
       </c>
       <c r="AB3" s="1">
-        <v>956.285000</v>
+        <v>956.28499999999997</v>
       </c>
       <c r="AC3" s="1">
-        <v>-79.918100</v>
+        <v>-79.918099999999995</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>18064.952038</v>
+        <v>18064.952037999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>5.018042</v>
+        <v>5.0180420000000003</v>
       </c>
       <c r="AG3" s="1">
-        <v>961.138000</v>
+        <v>961.13800000000003</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.798700</v>
+        <v>-79.798699999999997</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>18075.378980</v>
+        <v>18075.378980000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>5.020939</v>
+        <v>5.0209390000000003</v>
       </c>
       <c r="AL3" s="1">
-        <v>969.090000</v>
+        <v>969.09</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.952500</v>
+        <v>-87.952500000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>18085.974970</v>
+        <v>18085.974969999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>5.023882</v>
+        <v>5.0238820000000004</v>
       </c>
       <c r="AQ3" s="1">
-        <v>978.336000</v>
+        <v>978.33600000000001</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.237000</v>
+        <v>-103.23699999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>18097.016942</v>
+        <v>18097.016941999998</v>
       </c>
       <c r="AU3" s="1">
-        <v>5.026949</v>
+        <v>5.0269490000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>989.879000</v>
+        <v>989.87900000000002</v>
       </c>
       <c r="AW3" s="1">
-        <v>-125.164000</v>
+        <v>-125.164</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>18107.826223</v>
       </c>
       <c r="AZ3" s="1">
-        <v>5.029952</v>
+        <v>5.0299519999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>999.593000</v>
+        <v>999.59299999999996</v>
       </c>
       <c r="BB3" s="1">
-        <v>-144.122000</v>
+        <v>-144.12200000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>18119.153887</v>
       </c>
       <c r="BE3" s="1">
-        <v>5.033098</v>
+        <v>5.0330979999999998</v>
       </c>
       <c r="BF3" s="1">
-        <v>1045.290000</v>
+        <v>1045.29</v>
       </c>
       <c r="BG3" s="1">
-        <v>-229.933000</v>
+        <v>-229.93299999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>18130.308880</v>
+        <v>18130.30888</v>
       </c>
       <c r="BJ3" s="1">
-        <v>5.036197</v>
+        <v>5.0361969999999996</v>
       </c>
       <c r="BK3" s="1">
-        <v>1125.350000</v>
+        <v>1125.3499999999999</v>
       </c>
       <c r="BL3" s="1">
-        <v>-367.640000</v>
+        <v>-367.64</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>18141.727282</v>
       </c>
       <c r="BO3" s="1">
-        <v>5.039369</v>
+        <v>5.0393689999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1257.910000</v>
+        <v>1257.9100000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-580.543000</v>
+        <v>-580.54300000000001</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>18153.239922</v>
+        <v>18153.239922000001</v>
       </c>
       <c r="BT3" s="1">
         <v>5.042567</v>
       </c>
       <c r="BU3" s="1">
-        <v>1406.720000</v>
+        <v>1406.72</v>
       </c>
       <c r="BV3" s="1">
-        <v>-808.508000</v>
+        <v>-808.50800000000004</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>18163.625156</v>
+        <v>18163.625155999998</v>
       </c>
       <c r="BY3" s="1">
-        <v>5.045451</v>
+        <v>5.0454509999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1570.720000</v>
+        <v>1570.72</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1045.990000</v>
+        <v>-1045.99</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>18174.808454</v>
+        <v>18174.808454000002</v>
       </c>
       <c r="CD3" s="1">
-        <v>5.048558</v>
+        <v>5.0485579999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1985.790000</v>
+        <v>1985.79</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1602.130000</v>
+        <v>-1602.13</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>18003.658919</v>
+        <v>18003.658919000001</v>
       </c>
       <c r="B4" s="1">
-        <v>5.001016</v>
+        <v>5.0010159999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>898.914000</v>
+        <v>898.91399999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-193.868000</v>
+        <v>-193.86799999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>18013.786235</v>
       </c>
       <c r="G4" s="1">
-        <v>5.003830</v>
+        <v>5.0038299999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>915.328000</v>
+        <v>915.32799999999997</v>
       </c>
       <c r="I4" s="1">
-        <v>-164.488000</v>
+        <v>-164.488</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>18023.898670</v>
+        <v>18023.898669999999</v>
       </c>
       <c r="L4" s="1">
-        <v>5.006639</v>
+        <v>5.0066389999999998</v>
       </c>
       <c r="M4" s="1">
-        <v>936.805000</v>
+        <v>936.80499999999995</v>
       </c>
       <c r="N4" s="1">
-        <v>-117.643000</v>
+        <v>-117.643</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>18034.037393</v>
+        <v>18034.037392999999</v>
       </c>
       <c r="Q4" s="1">
         <v>5.009455</v>
       </c>
       <c r="R4" s="1">
-        <v>942.961000</v>
+        <v>942.96100000000001</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.472000</v>
+        <v>-102.47199999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>18044.606178</v>
+        <v>18044.606178000002</v>
       </c>
       <c r="V4" s="1">
         <v>5.012391</v>
       </c>
       <c r="W4" s="1">
-        <v>949.178000</v>
+        <v>949.178</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.140700</v>
+        <v>-89.140699999999995</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>18054.750820</v>
+        <v>18054.750820000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>5.015209</v>
+        <v>5.0152089999999996</v>
       </c>
       <c r="AB4" s="1">
-        <v>956.270000</v>
+        <v>956.27</v>
       </c>
       <c r="AC4" s="1">
-        <v>-79.967100</v>
+        <v>-79.967100000000002</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>18065.294806</v>
+        <v>18065.294806000002</v>
       </c>
       <c r="AF4" s="1">
-        <v>5.018137</v>
+        <v>5.0181370000000003</v>
       </c>
       <c r="AG4" s="1">
-        <v>961.161000</v>
+        <v>961.16099999999994</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.779600</v>
+        <v>-79.779600000000002</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>18075.716712</v>
+        <v>18075.716712000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>5.021032</v>
+        <v>5.0210319999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>969.073000</v>
+        <v>969.07299999999998</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.953100</v>
+        <v>-87.953100000000006</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>18086.693675</v>
+        <v>18086.693674999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>5.024082</v>
+        <v>5.0240819999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>978.328000</v>
+        <v>978.32799999999997</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.258000</v>
+        <v>-103.258</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>18097.372047</v>
+        <v>18097.372047000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>5.027048</v>
+        <v>5.0270479999999997</v>
       </c>
       <c r="AV4" s="1">
-        <v>989.876000</v>
+        <v>989.87599999999998</v>
       </c>
       <c r="AW4" s="1">
-        <v>-125.156000</v>
+        <v>-125.15600000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>18108.177917</v>
+        <v>18108.177917000001</v>
       </c>
       <c r="AZ4" s="1">
         <v>5.030049</v>
       </c>
       <c r="BA4" s="1">
-        <v>999.595000</v>
+        <v>999.59500000000003</v>
       </c>
       <c r="BB4" s="1">
-        <v>-144.131000</v>
+        <v>-144.131</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>18119.544703</v>
@@ -1160,649 +1576,649 @@
         <v>5.033207</v>
       </c>
       <c r="BF4" s="1">
-        <v>1045.290000</v>
+        <v>1045.29</v>
       </c>
       <c r="BG4" s="1">
-        <v>-229.969000</v>
+        <v>-229.96899999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>18130.992864</v>
       </c>
       <c r="BJ4" s="1">
-        <v>5.036387</v>
+        <v>5.0363870000000004</v>
       </c>
       <c r="BK4" s="1">
-        <v>1125.390000</v>
+        <v>1125.3900000000001</v>
       </c>
       <c r="BL4" s="1">
-        <v>-367.660000</v>
+        <v>-367.66</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>18142.474256</v>
+        <v>18142.474256000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>5.039576</v>
+        <v>5.0395760000000003</v>
       </c>
       <c r="BP4" s="1">
-        <v>1257.920000</v>
+        <v>1257.92</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-580.531000</v>
+        <v>-580.53099999999995</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>18153.358502</v>
+        <v>18153.358501999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>5.042600</v>
+        <v>5.0426000000000002</v>
       </c>
       <c r="BU4" s="1">
-        <v>1406.630000</v>
+        <v>1406.63</v>
       </c>
       <c r="BV4" s="1">
-        <v>-808.536000</v>
+        <v>-808.53599999999994</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>18164.074564</v>
+        <v>18164.074563999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>5.045576</v>
+        <v>5.0455759999999996</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1570.760000</v>
+        <v>1570.76</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1045.850000</v>
+        <v>-1045.8499999999999</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>18175.337222</v>
+        <v>18175.337221999998</v>
       </c>
       <c r="CD4" s="1">
         <v>5.048705</v>
       </c>
       <c r="CE4" s="1">
-        <v>1985.560000</v>
+        <v>1985.56</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1599.990000</v>
+        <v>-1599.99</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>18004.079749</v>
       </c>
       <c r="B5" s="1">
-        <v>5.001133</v>
+        <v>5.0011330000000003</v>
       </c>
       <c r="C5" s="1">
-        <v>899.170000</v>
+        <v>899.17</v>
       </c>
       <c r="D5" s="1">
-        <v>-194.013000</v>
+        <v>-194.01300000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>18014.052625</v>
       </c>
       <c r="G5" s="1">
-        <v>5.003904</v>
+        <v>5.0039040000000004</v>
       </c>
       <c r="H5" s="1">
-        <v>915.625000</v>
+        <v>915.625</v>
       </c>
       <c r="I5" s="1">
-        <v>-164.087000</v>
+        <v>-164.08699999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>18024.199244</v>
+        <v>18024.199243999999</v>
       </c>
       <c r="L5" s="1">
-        <v>5.006722</v>
+        <v>5.0067219999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>936.789000</v>
+        <v>936.78899999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-117.513000</v>
+        <v>-117.51300000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>18034.386078</v>
       </c>
       <c r="Q5" s="1">
-        <v>5.009552</v>
+        <v>5.0095520000000002</v>
       </c>
       <c r="R5" s="1">
-        <v>942.988000</v>
+        <v>942.98800000000006</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.439000</v>
+        <v>-102.43899999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>18044.951393</v>
+        <v>18044.951392999999</v>
       </c>
       <c r="V5" s="1">
         <v>5.012486</v>
       </c>
       <c r="W5" s="1">
-        <v>949.259000</v>
+        <v>949.25900000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.028800</v>
+        <v>-89.028800000000004</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>18055.100996</v>
+        <v>18055.100996000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>5.015306</v>
+        <v>5.0153059999999998</v>
       </c>
       <c r="AB5" s="1">
-        <v>956.241000</v>
+        <v>956.24099999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-79.990300</v>
+        <v>-79.990300000000005</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>18065.983253</v>
+        <v>18065.983252999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>5.018329</v>
+        <v>5.0183289999999996</v>
       </c>
       <c r="AG5" s="1">
-        <v>961.200000</v>
+        <v>961.2</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.788800</v>
+        <v>-79.788799999999995</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>18076.422519</v>
       </c>
       <c r="AK5" s="1">
-        <v>5.021228</v>
+        <v>5.0212279999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>969.121000</v>
+        <v>969.12099999999998</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.980800</v>
+        <v>-87.980800000000002</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>18087.054762</v>
       </c>
       <c r="AP5" s="1">
-        <v>5.024182</v>
+        <v>5.0241819999999997</v>
       </c>
       <c r="AQ5" s="1">
-        <v>978.350000</v>
+        <v>978.35</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.257000</v>
+        <v>-103.25700000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>18097.734123</v>
+        <v>18097.734122999998</v>
       </c>
       <c r="AU5" s="1">
-        <v>5.027148</v>
+        <v>5.0271480000000004</v>
       </c>
       <c r="AV5" s="1">
-        <v>989.891000</v>
+        <v>989.89099999999996</v>
       </c>
       <c r="AW5" s="1">
-        <v>-125.170000</v>
+        <v>-125.17</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>18108.537485</v>
+        <v>18108.537485000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>5.030149</v>
+        <v>5.0301489999999998</v>
       </c>
       <c r="BA5" s="1">
-        <v>999.579000</v>
+        <v>999.57899999999995</v>
       </c>
       <c r="BB5" s="1">
-        <v>-144.143000</v>
+        <v>-144.143</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>18120.215293</v>
+        <v>18120.215293000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>5.033393</v>
+        <v>5.0333930000000002</v>
       </c>
       <c r="BF5" s="1">
-        <v>1045.280000</v>
+        <v>1045.28</v>
       </c>
       <c r="BG5" s="1">
-        <v>-229.968000</v>
+        <v>-229.96799999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>18131.433806</v>
+        <v>18131.433806000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>5.036509</v>
+        <v>5.0365089999999997</v>
       </c>
       <c r="BK5" s="1">
-        <v>1125.410000</v>
+        <v>1125.4100000000001</v>
       </c>
       <c r="BL5" s="1">
-        <v>-367.591000</v>
+        <v>-367.59100000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>18142.968306</v>
+        <v>18142.968305999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>5.039713</v>
+        <v>5.0397129999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1257.900000</v>
+        <v>1257.9000000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-580.580000</v>
+        <v>-580.58000000000004</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>18153.799907</v>
+        <v>18153.799907000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>5.042722</v>
+        <v>5.0427220000000004</v>
       </c>
       <c r="BU5" s="1">
-        <v>1406.570000</v>
+        <v>1406.57</v>
       </c>
       <c r="BV5" s="1">
-        <v>-808.383000</v>
+        <v>-808.38300000000004</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>18164.498725</v>
+        <v>18164.498725000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>5.045694</v>
+        <v>5.0456940000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1570.670000</v>
+        <v>1570.67</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1045.900000</v>
+        <v>-1045.9000000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>18175.881013</v>
+        <v>18175.881012999998</v>
       </c>
       <c r="CD5" s="1">
-        <v>5.048856</v>
+        <v>5.0488559999999998</v>
       </c>
       <c r="CE5" s="1">
-        <v>1984.640000</v>
+        <v>1984.64</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1601.960000</v>
+        <v>-1601.96</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>18004.357318</v>
+        <v>18004.357317999998</v>
       </c>
       <c r="B6" s="1">
-        <v>5.001210</v>
+        <v>5.0012100000000004</v>
       </c>
       <c r="C6" s="1">
-        <v>899.030000</v>
+        <v>899.03</v>
       </c>
       <c r="D6" s="1">
-        <v>-194.089000</v>
+        <v>-194.089</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>18014.394329</v>
+        <v>18014.394328999999</v>
       </c>
       <c r="G6" s="1">
-        <v>5.003998</v>
+        <v>5.0039980000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>915.224000</v>
+        <v>915.22400000000005</v>
       </c>
       <c r="I6" s="1">
-        <v>-164.290000</v>
+        <v>-164.29</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>18024.544739</v>
+        <v>18024.544739000001</v>
       </c>
       <c r="L6" s="1">
         <v>5.006818</v>
       </c>
       <c r="M6" s="1">
-        <v>936.538000</v>
+        <v>936.53800000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-117.487000</v>
+        <v>-117.48699999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>18034.735758</v>
+        <v>18034.735757999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>5.009649</v>
+        <v>5.0096489999999996</v>
       </c>
       <c r="R6" s="1">
-        <v>943.012000</v>
+        <v>943.01199999999994</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.507000</v>
+        <v>-102.50700000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>18045.637856</v>
+        <v>18045.637856000001</v>
       </c>
       <c r="V6" s="1">
         <v>5.012677</v>
       </c>
       <c r="W6" s="1">
-        <v>949.167000</v>
+        <v>949.16700000000003</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.114100</v>
+        <v>-89.114099999999993</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>18055.797876</v>
+        <v>18055.797876000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>5.015499</v>
+        <v>5.0154990000000002</v>
       </c>
       <c r="AB6" s="1">
-        <v>956.165000</v>
+        <v>956.16499999999996</v>
       </c>
       <c r="AC6" s="1">
-        <v>-79.861800</v>
+        <v>-79.861800000000002</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>18066.330916</v>
+        <v>18066.330915999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>5.018425</v>
+        <v>5.0184249999999997</v>
       </c>
       <c r="AG6" s="1">
-        <v>961.185000</v>
+        <v>961.18499999999995</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.843300</v>
+        <v>-79.843299999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>18076.802456</v>
+        <v>18076.802456000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>5.021334</v>
+        <v>5.0213340000000004</v>
       </c>
       <c r="AL6" s="1">
-        <v>969.104000</v>
+        <v>969.10400000000004</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.970500</v>
+        <v>-87.970500000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>18087.414393</v>
+        <v>18087.414392999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>5.024282</v>
+        <v>5.0242820000000004</v>
       </c>
       <c r="AQ6" s="1">
-        <v>978.326000</v>
+        <v>978.32600000000002</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.260000</v>
+        <v>-103.26</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>18098.407690</v>
+        <v>18098.40769</v>
       </c>
       <c r="AU6" s="1">
-        <v>5.027335</v>
+        <v>5.0273349999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>989.866000</v>
+        <v>989.86599999999999</v>
       </c>
       <c r="AW6" s="1">
-        <v>-125.159000</v>
+        <v>-125.15900000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>18109.235852</v>
+        <v>18109.235852000002</v>
       </c>
       <c r="AZ6" s="1">
-        <v>5.030343</v>
+        <v>5.0303430000000002</v>
       </c>
       <c r="BA6" s="1">
-        <v>999.584000</v>
+        <v>999.58399999999995</v>
       </c>
       <c r="BB6" s="1">
-        <v>-144.148000</v>
+        <v>-144.148</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>18120.661725</v>
+        <v>18120.661725000002</v>
       </c>
       <c r="BE6" s="1">
-        <v>5.033517</v>
+        <v>5.0335169999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1045.290000</v>
+        <v>1045.29</v>
       </c>
       <c r="BG6" s="1">
-        <v>-229.955000</v>
+        <v>-229.95500000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>18131.809806</v>
+        <v>18131.809806000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>5.036614</v>
+        <v>5.0366140000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1125.380000</v>
+        <v>1125.3800000000001</v>
       </c>
       <c r="BL6" s="1">
-        <v>-367.621000</v>
+        <v>-367.62099999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>18143.387391</v>
       </c>
       <c r="BO6" s="1">
-        <v>5.039830</v>
+        <v>5.0398300000000003</v>
       </c>
       <c r="BP6" s="1">
-        <v>1257.900000</v>
+        <v>1257.9000000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-580.587000</v>
+        <v>-580.58699999999999</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>18154.217041</v>
       </c>
       <c r="BT6" s="1">
-        <v>5.042838</v>
+        <v>5.0428379999999997</v>
       </c>
       <c r="BU6" s="1">
-        <v>1406.570000</v>
+        <v>1406.57</v>
       </c>
       <c r="BV6" s="1">
-        <v>-808.399000</v>
+        <v>-808.399</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>18164.921204</v>
+        <v>18164.921203999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>5.045811</v>
+        <v>5.0458109999999996</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1570.560000</v>
+        <v>1570.56</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1045.910000</v>
+        <v>-1045.9100000000001</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>18176.420947</v>
+        <v>18176.420946999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>5.049006</v>
+        <v>5.0490060000000003</v>
       </c>
       <c r="CE6" s="1">
-        <v>1986.360000</v>
+        <v>1986.36</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1601.160000</v>
+        <v>-1601.16</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>18004.701548</v>
+        <v>18004.701548000001</v>
       </c>
       <c r="B7" s="1">
-        <v>5.001306</v>
+        <v>5.0013059999999996</v>
       </c>
       <c r="C7" s="1">
-        <v>898.951000</v>
+        <v>898.95100000000002</v>
       </c>
       <c r="D7" s="1">
-        <v>-193.987000</v>
+        <v>-193.98699999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>18014.739081</v>
       </c>
       <c r="G7" s="1">
-        <v>5.004094</v>
+        <v>5.0040940000000003</v>
       </c>
       <c r="H7" s="1">
-        <v>915.305000</v>
+        <v>915.30499999999995</v>
       </c>
       <c r="I7" s="1">
-        <v>-163.856000</v>
+        <v>-163.85599999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>18024.889708</v>
+        <v>18024.889707999999</v>
       </c>
       <c r="L7" s="1">
-        <v>5.006914</v>
+        <v>5.0069140000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>936.735000</v>
+        <v>936.73500000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-117.515000</v>
+        <v>-117.515</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>18035.434621</v>
@@ -1811,602 +2227,602 @@
         <v>5.009843</v>
       </c>
       <c r="R7" s="1">
-        <v>942.966000</v>
+        <v>942.96600000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.541000</v>
+        <v>-102.541</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>18045.983537</v>
       </c>
       <c r="V7" s="1">
-        <v>5.012773</v>
+        <v>5.0127730000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>949.218000</v>
+        <v>949.21799999999996</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.098100</v>
+        <v>-89.098100000000002</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>18056.144578</v>
+        <v>18056.144577999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>5.015596</v>
+        <v>5.0155960000000004</v>
       </c>
       <c r="AB7" s="1">
-        <v>956.217000</v>
+        <v>956.21699999999998</v>
       </c>
       <c r="AC7" s="1">
-        <v>-79.928200</v>
+        <v>-79.928200000000004</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>18066.673156</v>
+        <v>18066.673156000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>5.018520</v>
+        <v>5.0185199999999996</v>
       </c>
       <c r="AG7" s="1">
-        <v>961.215000</v>
+        <v>961.21500000000003</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.839500</v>
+        <v>-79.839500000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>18077.421993</v>
       </c>
       <c r="AK7" s="1">
-        <v>5.021506</v>
+        <v>5.0215059999999996</v>
       </c>
       <c r="AL7" s="1">
-        <v>969.094000</v>
+        <v>969.09400000000005</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.991800</v>
+        <v>-87.991799999999998</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>18088.082969</v>
+        <v>18088.082968999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>5.024467</v>
+        <v>5.0244669999999996</v>
       </c>
       <c r="AQ7" s="1">
-        <v>978.356000</v>
+        <v>978.35599999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.240000</v>
+        <v>-103.24</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>18098.865529</v>
+        <v>18098.865528999999</v>
       </c>
       <c r="AU7" s="1">
         <v>5.027463</v>
       </c>
       <c r="AV7" s="1">
-        <v>989.864000</v>
+        <v>989.86400000000003</v>
       </c>
       <c r="AW7" s="1">
-        <v>-125.167000</v>
+        <v>-125.167</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>18109.638139</v>
+        <v>18109.638138999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>5.030455</v>
+        <v>5.0304549999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>999.602000</v>
+        <v>999.60199999999998</v>
       </c>
       <c r="BB7" s="1">
-        <v>-144.144000</v>
+        <v>-144.14400000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>18121.020796</v>
+        <v>18121.020796000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>5.033617</v>
+        <v>5.0336169999999996</v>
       </c>
       <c r="BF7" s="1">
-        <v>1045.280000</v>
+        <v>1045.28</v>
       </c>
       <c r="BG7" s="1">
-        <v>-229.977000</v>
+        <v>-229.977</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>18132.185051</v>
       </c>
       <c r="BJ7" s="1">
-        <v>5.036718</v>
+        <v>5.0367179999999996</v>
       </c>
       <c r="BK7" s="1">
-        <v>1125.420000</v>
+        <v>1125.42</v>
       </c>
       <c r="BL7" s="1">
-        <v>-367.614000</v>
+        <v>-367.61399999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>18143.966223</v>
+        <v>18143.966222999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>5.039991</v>
+        <v>5.0399909999999997</v>
       </c>
       <c r="BP7" s="1">
-        <v>1257.890000</v>
+        <v>1257.8900000000001</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-580.530000</v>
+        <v>-580.53</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>18154.632688</v>
+        <v>18154.632688000002</v>
       </c>
       <c r="BT7" s="1">
-        <v>5.042954</v>
+        <v>5.0429539999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1406.500000</v>
+        <v>1406.5</v>
       </c>
       <c r="BV7" s="1">
-        <v>-808.251000</v>
+        <v>-808.25099999999998</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>18165.346306</v>
+        <v>18165.346305999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>5.045930</v>
+        <v>5.0459300000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1570.610000</v>
+        <v>1570.61</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1046.000000</v>
+        <v>-1046</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>18177.086120</v>
+        <v>18177.08612</v>
       </c>
       <c r="CD7" s="1">
-        <v>5.049191</v>
+        <v>5.0491910000000004</v>
       </c>
       <c r="CE7" s="1">
-        <v>1984.980000</v>
+        <v>1984.98</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1601.910000</v>
+        <v>-1601.91</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>18005.039781</v>
+        <v>18005.039780999999</v>
       </c>
       <c r="B8" s="1">
-        <v>5.001400</v>
+        <v>5.0014000000000003</v>
       </c>
       <c r="C8" s="1">
-        <v>899.018000</v>
+        <v>899.01800000000003</v>
       </c>
       <c r="D8" s="1">
-        <v>-193.783000</v>
+        <v>-193.78299999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>18015.433986</v>
       </c>
       <c r="G8" s="1">
-        <v>5.004287</v>
+        <v>5.0042869999999997</v>
       </c>
       <c r="H8" s="1">
-        <v>915.486000</v>
+        <v>915.48599999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-164.174000</v>
+        <v>-164.17400000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>18025.583578</v>
+        <v>18025.583578000002</v>
       </c>
       <c r="L8" s="1">
-        <v>5.007107</v>
+        <v>5.0071070000000004</v>
       </c>
       <c r="M8" s="1">
-        <v>936.610000</v>
+        <v>936.61</v>
       </c>
       <c r="N8" s="1">
-        <v>-117.636000</v>
+        <v>-117.636</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>18035.783804</v>
+        <v>18035.783803999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>5.009940</v>
+        <v>5.0099400000000003</v>
       </c>
       <c r="R8" s="1">
-        <v>942.966000</v>
+        <v>942.96600000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.479000</v>
+        <v>-102.479</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>18046.326766</v>
+        <v>18046.326765999998</v>
       </c>
       <c r="V8" s="1">
-        <v>5.012869</v>
+        <v>5.0128690000000002</v>
       </c>
       <c r="W8" s="1">
-        <v>949.166000</v>
+        <v>949.16600000000005</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.084000</v>
+        <v>-89.084000000000003</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>18056.492801</v>
       </c>
       <c r="AA8" s="1">
-        <v>5.015692</v>
+        <v>5.0156919999999996</v>
       </c>
       <c r="AB8" s="1">
-        <v>956.274000</v>
+        <v>956.274</v>
       </c>
       <c r="AC8" s="1">
-        <v>-79.986600</v>
+        <v>-79.986599999999996</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>18067.319476</v>
+        <v>18067.319476000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>5.018700</v>
+        <v>5.0186999999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>961.181000</v>
+        <v>961.18100000000004</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.817500</v>
+        <v>-79.817499999999995</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>18077.816309</v>
+        <v>18077.816309000002</v>
       </c>
       <c r="AK8" s="1">
-        <v>5.021616</v>
+        <v>5.0216159999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>969.084000</v>
+        <v>969.08399999999995</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.979700</v>
+        <v>-87.979699999999994</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>18088.522951</v>
+        <v>18088.522950999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>5.024590</v>
+        <v>5.0245899999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>978.349000</v>
+        <v>978.34900000000005</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.276000</v>
+        <v>-103.276</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>18099.228073</v>
+        <v>18099.228072999998</v>
       </c>
       <c r="AU8" s="1">
-        <v>5.027563</v>
+        <v>5.0275629999999998</v>
       </c>
       <c r="AV8" s="1">
-        <v>989.891000</v>
+        <v>989.89099999999996</v>
       </c>
       <c r="AW8" s="1">
-        <v>-125.177000</v>
+        <v>-125.17700000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>18110.017082</v>
+        <v>18110.017081999998</v>
       </c>
       <c r="AZ8" s="1">
-        <v>5.030560</v>
+        <v>5.0305600000000004</v>
       </c>
       <c r="BA8" s="1">
-        <v>999.591000</v>
+        <v>999.59100000000001</v>
       </c>
       <c r="BB8" s="1">
-        <v>-144.116000</v>
+        <v>-144.11600000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>18121.381916</v>
+        <v>18121.381915999998</v>
       </c>
       <c r="BE8" s="1">
-        <v>5.033717</v>
+        <v>5.0337170000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1045.290000</v>
+        <v>1045.29</v>
       </c>
       <c r="BG8" s="1">
-        <v>-229.950000</v>
+        <v>-229.95</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>18132.608334</v>
       </c>
       <c r="BJ8" s="1">
-        <v>5.036836</v>
+        <v>5.0368360000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1125.400000</v>
+        <v>1125.4000000000001</v>
       </c>
       <c r="BL8" s="1">
-        <v>-367.614000</v>
+        <v>-367.61399999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>18144.203310</v>
+        <v>18144.203310000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>5.040056</v>
+        <v>5.0400559999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1257.950000</v>
+        <v>1257.95</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-580.563000</v>
+        <v>-580.56299999999999</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>18155.050432</v>
       </c>
       <c r="BT8" s="1">
-        <v>5.043070</v>
+        <v>5.0430700000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>1406.570000</v>
+        <v>1406.57</v>
       </c>
       <c r="BV8" s="1">
-        <v>-808.220000</v>
+        <v>-808.22</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>18165.761934</v>
+        <v>18165.761933999998</v>
       </c>
       <c r="BY8" s="1">
-        <v>5.046045</v>
+        <v>5.0460450000000003</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1570.700000</v>
+        <v>1570.7</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1045.880000</v>
+        <v>-1045.8800000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>18177.500242</v>
+        <v>18177.500241999998</v>
       </c>
       <c r="CD8" s="1">
-        <v>5.049306</v>
+        <v>5.0493059999999996</v>
       </c>
       <c r="CE8" s="1">
-        <v>1984.940000</v>
+        <v>1984.94</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1601.930000</v>
+        <v>-1601.93</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>18005.727732</v>
+        <v>18005.727731999999</v>
       </c>
       <c r="B9" s="1">
-        <v>5.001591</v>
+        <v>5.0015910000000003</v>
       </c>
       <c r="C9" s="1">
-        <v>899.042000</v>
+        <v>899.04200000000003</v>
       </c>
       <c r="D9" s="1">
-        <v>-194.085000</v>
+        <v>-194.08500000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>18015.778885</v>
       </c>
       <c r="G9" s="1">
-        <v>5.004383</v>
+        <v>5.0043829999999998</v>
       </c>
       <c r="H9" s="1">
-        <v>915.652000</v>
+        <v>915.65200000000004</v>
       </c>
       <c r="I9" s="1">
-        <v>-164.222000</v>
+        <v>-164.22200000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>18025.927307</v>
+        <v>18025.927307000002</v>
       </c>
       <c r="L9" s="1">
-        <v>5.007202</v>
+        <v>5.0072020000000004</v>
       </c>
       <c r="M9" s="1">
-        <v>936.607000</v>
+        <v>936.60699999999997</v>
       </c>
       <c r="N9" s="1">
-        <v>-117.545000</v>
+        <v>-117.545</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>18036.132493</v>
+        <v>18036.132493000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>5.010037</v>
+        <v>5.0100369999999996</v>
       </c>
       <c r="R9" s="1">
-        <v>942.966000</v>
+        <v>942.96600000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.486000</v>
+        <v>-102.486</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>18046.966110</v>
+        <v>18046.966110000001</v>
       </c>
       <c r="V9" s="1">
-        <v>5.013046</v>
+        <v>5.0130460000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>949.194000</v>
+        <v>949.19399999999996</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.105400</v>
+        <v>-89.105400000000003</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>18057.145507</v>
+        <v>18057.145507000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>5.015874</v>
+        <v>5.0158740000000002</v>
       </c>
       <c r="AB9" s="1">
-        <v>956.287000</v>
+        <v>956.28700000000003</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.009600</v>
+        <v>-80.009600000000006</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>18067.703378</v>
+        <v>18067.703377999998</v>
       </c>
       <c r="AF9" s="1">
-        <v>5.018806</v>
+        <v>5.0188059999999997</v>
       </c>
       <c r="AG9" s="1">
-        <v>961.038000</v>
+        <v>961.03800000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.844100</v>
+        <v>-79.844099999999997</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>18078.163974</v>
+        <v>18078.163973999999</v>
       </c>
       <c r="AK9" s="1">
         <v>5.021712</v>
       </c>
       <c r="AL9" s="1">
-        <v>969.079000</v>
+        <v>969.07899999999995</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.978600</v>
+        <v>-87.9786</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>18088.881527</v>
+        <v>18088.881527000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>5.024689</v>
+        <v>5.0246890000000004</v>
       </c>
       <c r="AQ9" s="1">
-        <v>978.330000</v>
+        <v>978.33</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.241000</v>
+        <v>-103.241</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>18099.596104</v>
@@ -2415,1752 +2831,1752 @@
         <v>5.027666</v>
       </c>
       <c r="AV9" s="1">
-        <v>989.885000</v>
+        <v>989.88499999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-125.169000</v>
+        <v>-125.169</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>18110.696607</v>
+        <v>18110.696607000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>5.030749</v>
+        <v>5.0307490000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>999.599000</v>
+        <v>999.59900000000005</v>
       </c>
       <c r="BB9" s="1">
-        <v>-144.143000</v>
+        <v>-144.143</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>18121.804981</v>
+        <v>18121.804981000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>5.033835</v>
+        <v>5.0338349999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1045.280000</v>
+        <v>1045.28</v>
       </c>
       <c r="BG9" s="1">
-        <v>-229.948000</v>
+        <v>-229.94800000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>18132.961486</v>
       </c>
       <c r="BJ9" s="1">
-        <v>5.036934</v>
+        <v>5.0369339999999996</v>
       </c>
       <c r="BK9" s="1">
-        <v>1125.380000</v>
+        <v>1125.3800000000001</v>
       </c>
       <c r="BL9" s="1">
-        <v>-367.651000</v>
+        <v>-367.65100000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>18144.601629</v>
+        <v>18144.601629000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>5.040167</v>
+        <v>5.0401670000000003</v>
       </c>
       <c r="BP9" s="1">
-        <v>1257.890000</v>
+        <v>1257.8900000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-580.558000</v>
+        <v>-580.55799999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>18155.465967</v>
       </c>
       <c r="BT9" s="1">
-        <v>5.043185</v>
+        <v>5.0431850000000003</v>
       </c>
       <c r="BU9" s="1">
-        <v>1406.540000</v>
+        <v>1406.54</v>
       </c>
       <c r="BV9" s="1">
-        <v>-808.094000</v>
+        <v>-808.09400000000005</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>18166.217248</v>
+        <v>18166.217248000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>5.046171</v>
+        <v>5.0461710000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1570.610000</v>
+        <v>1570.61</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1046.060000</v>
+        <v>-1046.06</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>18178.019091</v>
+        <v>18178.019090999998</v>
       </c>
       <c r="CD9" s="1">
-        <v>5.049450</v>
+        <v>5.0494500000000002</v>
       </c>
       <c r="CE9" s="1">
-        <v>1986.200000</v>
+        <v>1986.2</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1601.660000</v>
+        <v>-1601.66</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>18006.071460</v>
+        <v>18006.071459999999</v>
       </c>
       <c r="B10" s="1">
-        <v>5.001687</v>
+        <v>5.0016870000000004</v>
       </c>
       <c r="C10" s="1">
-        <v>898.959000</v>
+        <v>898.95899999999995</v>
       </c>
       <c r="D10" s="1">
-        <v>-193.976000</v>
+        <v>-193.976</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>18016.118424</v>
       </c>
       <c r="G10" s="1">
-        <v>5.004477</v>
+        <v>5.0044769999999996</v>
       </c>
       <c r="H10" s="1">
-        <v>915.465000</v>
+        <v>915.46500000000003</v>
       </c>
       <c r="I10" s="1">
-        <v>-164.033000</v>
+        <v>-164.03299999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>18026.274505</v>
+        <v>18026.274505000001</v>
       </c>
       <c r="L10" s="1">
-        <v>5.007298</v>
+        <v>5.0072979999999996</v>
       </c>
       <c r="M10" s="1">
-        <v>936.777000</v>
+        <v>936.77700000000004</v>
       </c>
       <c r="N10" s="1">
-        <v>-117.597000</v>
+        <v>-117.59699999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>18036.795675</v>
+        <v>18036.795675000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>5.010221</v>
+        <v>5.0102209999999996</v>
       </c>
       <c r="R10" s="1">
-        <v>943.025000</v>
+        <v>943.02499999999998</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.451000</v>
+        <v>-102.45099999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>18047.357453</v>
+        <v>18047.357453000001</v>
       </c>
       <c r="V10" s="1">
-        <v>5.013155</v>
+        <v>5.0131550000000002</v>
       </c>
       <c r="W10" s="1">
-        <v>949.217000</v>
+        <v>949.21699999999998</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.051300</v>
+        <v>-89.051299999999998</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>18057.538337</v>
+        <v>18057.538337000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>5.015983</v>
+        <v>5.0159830000000003</v>
       </c>
       <c r="AB10" s="1">
-        <v>956.131000</v>
+        <v>956.13099999999997</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.023500</v>
+        <v>-80.023499999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>18068.046083</v>
+        <v>18068.046083000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>5.018902</v>
+        <v>5.0189019999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>961.109000</v>
+        <v>961.10900000000004</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.865400</v>
+        <v>-79.865399999999994</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>18078.514187</v>
+        <v>18078.514187000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>5.021809</v>
+        <v>5.0218090000000002</v>
       </c>
       <c r="AL10" s="1">
-        <v>969.078000</v>
+        <v>969.07799999999997</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.949500</v>
+        <v>-87.9495</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>18089.240630</v>
+        <v>18089.24063</v>
       </c>
       <c r="AP10" s="1">
-        <v>5.024789</v>
+        <v>5.0247890000000002</v>
       </c>
       <c r="AQ10" s="1">
-        <v>978.361000</v>
+        <v>978.36099999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.255000</v>
+        <v>-103.255</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>18100.016713</v>
+        <v>18100.016713000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>5.027782</v>
+        <v>5.0277820000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>989.876000</v>
+        <v>989.87599999999998</v>
       </c>
       <c r="AW10" s="1">
-        <v>-125.151000</v>
+        <v>-125.151</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>18111.099854</v>
       </c>
       <c r="AZ10" s="1">
-        <v>5.030861</v>
+        <v>5.0308609999999998</v>
       </c>
       <c r="BA10" s="1">
-        <v>999.593000</v>
+        <v>999.59299999999996</v>
       </c>
       <c r="BB10" s="1">
-        <v>-144.121000</v>
+        <v>-144.12100000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>18122.106539</v>
       </c>
       <c r="BE10" s="1">
-        <v>5.033918</v>
+        <v>5.0339179999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1045.270000</v>
+        <v>1045.27</v>
       </c>
       <c r="BG10" s="1">
-        <v>-229.959000</v>
+        <v>-229.959</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>18133.335470</v>
+        <v>18133.335470000002</v>
       </c>
       <c r="BJ10" s="1">
-        <v>5.037038</v>
+        <v>5.0370379999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1125.370000</v>
+        <v>1125.3699999999999</v>
       </c>
       <c r="BL10" s="1">
-        <v>-367.558000</v>
+        <v>-367.55799999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>18145.019260</v>
+        <v>18145.019260000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>5.040283</v>
+        <v>5.0402829999999996</v>
       </c>
       <c r="BP10" s="1">
-        <v>1257.910000</v>
+        <v>1257.9100000000001</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-580.563000</v>
+        <v>-580.56299999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>18155.877150</v>
+        <v>18155.87715</v>
       </c>
       <c r="BT10" s="1">
-        <v>5.043299</v>
+        <v>5.0432990000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>1406.650000</v>
+        <v>1406.65</v>
       </c>
       <c r="BV10" s="1">
-        <v>-808.042000</v>
+        <v>-808.04200000000003</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>18166.663152</v>
+        <v>18166.663152000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>5.046295</v>
+        <v>5.0462949999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1570.780000</v>
+        <v>1570.78</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1045.980000</v>
+        <v>-1045.98</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>18178.535888</v>
+        <v>18178.535887999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>5.049593</v>
+        <v>5.0495929999999998</v>
       </c>
       <c r="CE10" s="1">
-        <v>1985.710000</v>
+        <v>1985.71</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1600.160000</v>
+        <v>-1600.16</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>18006.410229</v>
+        <v>18006.410229000001</v>
       </c>
       <c r="B11" s="1">
-        <v>5.001781</v>
+        <v>5.0017810000000003</v>
       </c>
       <c r="C11" s="1">
-        <v>898.981000</v>
+        <v>898.98099999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-194.173000</v>
+        <v>-194.173</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>18016.778599</v>
+        <v>18016.778599000001</v>
       </c>
       <c r="G11" s="1">
-        <v>5.004661</v>
+        <v>5.0046609999999996</v>
       </c>
       <c r="H11" s="1">
-        <v>915.320000</v>
+        <v>915.32</v>
       </c>
       <c r="I11" s="1">
-        <v>-164.502000</v>
+        <v>-164.50200000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>18026.899994</v>
+        <v>18026.899993999999</v>
       </c>
       <c r="L11" s="1">
-        <v>5.007472</v>
+        <v>5.0074719999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>936.524000</v>
+        <v>936.524</v>
       </c>
       <c r="N11" s="1">
-        <v>-117.672000</v>
+        <v>-117.672</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>18037.176076</v>
       </c>
       <c r="Q11" s="1">
-        <v>5.010327</v>
+        <v>5.0103270000000002</v>
       </c>
       <c r="R11" s="1">
-        <v>943.002000</v>
+        <v>943.00199999999995</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.476000</v>
+        <v>-102.476</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>18047.699726</v>
+        <v>18047.699725999999</v>
       </c>
       <c r="V11" s="1">
-        <v>5.013250</v>
+        <v>5.0132500000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>949.183000</v>
+        <v>949.18299999999999</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.028200</v>
+        <v>-89.028199999999998</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>18057.890030</v>
+        <v>18057.890029999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>5.016081</v>
+        <v>5.0160809999999998</v>
       </c>
       <c r="AB11" s="1">
-        <v>956.147000</v>
+        <v>956.14700000000005</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.038700</v>
+        <v>-80.038700000000006</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>18068.389314</v>
       </c>
       <c r="AF11" s="1">
-        <v>5.018997</v>
+        <v>5.0189969999999997</v>
       </c>
       <c r="AG11" s="1">
-        <v>961.174000</v>
+        <v>961.17399999999998</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.792700</v>
+        <v>-79.792699999999996</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>18078.939220</v>
+        <v>18078.93922</v>
       </c>
       <c r="AK11" s="1">
-        <v>5.021928</v>
+        <v>5.0219279999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>969.074000</v>
+        <v>969.07399999999996</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.957700</v>
+        <v>-87.957700000000003</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>18089.661735</v>
+        <v>18089.661735000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>5.024906</v>
+        <v>5.0249059999999997</v>
       </c>
       <c r="AQ11" s="1">
-        <v>978.320000</v>
+        <v>978.32</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.275000</v>
+        <v>-103.27500000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>18100.320778</v>
+        <v>18100.320778000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>5.027867</v>
+        <v>5.0278669999999996</v>
       </c>
       <c r="AV11" s="1">
-        <v>989.885000</v>
+        <v>989.88499999999999</v>
       </c>
       <c r="AW11" s="1">
-        <v>-125.177000</v>
+        <v>-125.17700000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>18111.475289</v>
+        <v>18111.475289000002</v>
       </c>
       <c r="AZ11" s="1">
-        <v>5.030965</v>
+        <v>5.0309650000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>999.579000</v>
+        <v>999.57899999999995</v>
       </c>
       <c r="BB11" s="1">
-        <v>-144.121000</v>
+        <v>-144.12100000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>18122.467627</v>
+        <v>18122.467627000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>5.034019</v>
+        <v>5.0340189999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1045.270000</v>
+        <v>1045.27</v>
       </c>
       <c r="BG11" s="1">
-        <v>-229.949000</v>
+        <v>-229.94900000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>18133.710443</v>
       </c>
       <c r="BJ11" s="1">
-        <v>5.037142</v>
+        <v>5.0371420000000002</v>
       </c>
       <c r="BK11" s="1">
-        <v>1125.350000</v>
+        <v>1125.3499999999999</v>
       </c>
       <c r="BL11" s="1">
-        <v>-367.644000</v>
+        <v>-367.64400000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>18145.438876</v>
       </c>
       <c r="BO11" s="1">
-        <v>5.040400</v>
+        <v>5.0404</v>
       </c>
       <c r="BP11" s="1">
-        <v>1257.950000</v>
+        <v>1257.95</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-580.550000</v>
+        <v>-580.54999999999995</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>18156.294783</v>
+        <v>18156.294783000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>5.043415</v>
+        <v>5.0434150000000004</v>
       </c>
       <c r="BU11" s="1">
-        <v>1406.650000</v>
+        <v>1406.65</v>
       </c>
       <c r="BV11" s="1">
-        <v>-807.943000</v>
+        <v>-807.94299999999998</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>18167.084751</v>
+        <v>18167.084750999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>5.046412</v>
+        <v>5.0464120000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1570.780000</v>
+        <v>1570.78</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1045.870000</v>
+        <v>-1045.8699999999999</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>18179.055696</v>
+        <v>18179.055695999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>5.049738</v>
+        <v>5.0497379999999996</v>
       </c>
       <c r="CE11" s="1">
-        <v>1984.200000</v>
+        <v>1984.2</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1600.990000</v>
+        <v>-1600.99</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>18007.052051</v>
+        <v>18007.052050999999</v>
       </c>
       <c r="B12" s="1">
-        <v>5.001959</v>
+        <v>5.0019590000000003</v>
       </c>
       <c r="C12" s="1">
-        <v>898.935000</v>
+        <v>898.93499999999995</v>
       </c>
       <c r="D12" s="1">
-        <v>-193.945000</v>
+        <v>-193.94499999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>18017.157047</v>
+        <v>18017.157047000001</v>
       </c>
       <c r="G12" s="1">
         <v>5.004766</v>
       </c>
       <c r="H12" s="1">
-        <v>915.111000</v>
+        <v>915.11099999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-164.605000</v>
+        <v>-164.60499999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>18027.310153</v>
+        <v>18027.310152999999</v>
       </c>
       <c r="L12" s="1">
-        <v>5.007586</v>
+        <v>5.0075859999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>936.849000</v>
+        <v>936.84900000000005</v>
       </c>
       <c r="N12" s="1">
-        <v>-117.471000</v>
+        <v>-117.471</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>18037.524764</v>
+        <v>18037.524764000002</v>
       </c>
       <c r="Q12" s="1">
-        <v>5.010424</v>
+        <v>5.0104240000000004</v>
       </c>
       <c r="R12" s="1">
-        <v>943.022000</v>
+        <v>943.02200000000005</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.504000</v>
+        <v>-102.504</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>18048.043422</v>
+        <v>18048.043421999999</v>
       </c>
       <c r="V12" s="1">
-        <v>5.013345</v>
+        <v>5.0133450000000002</v>
       </c>
       <c r="W12" s="1">
-        <v>949.215000</v>
+        <v>949.21500000000003</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.065000</v>
+        <v>-89.064999999999998</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>18058.236240</v>
+        <v>18058.236239999998</v>
       </c>
       <c r="AA12" s="1">
-        <v>5.016177</v>
+        <v>5.0161769999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>956.115000</v>
+        <v>956.11500000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.019300</v>
+        <v>-80.019300000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>18068.804961</v>
+        <v>18068.804961000002</v>
       </c>
       <c r="AF12" s="1">
-        <v>5.019112</v>
+        <v>5.0191119999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>961.149000</v>
+        <v>961.149</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.912200</v>
+        <v>-79.912199999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>18079.216981</v>
+        <v>18079.216981000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>5.022005</v>
+        <v>5.0220050000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>969.071000</v>
+        <v>969.07100000000003</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.961500</v>
+        <v>-87.961500000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>18089.961846</v>
+        <v>18089.961845999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>5.024989</v>
+        <v>5.0249889999999997</v>
       </c>
       <c r="AQ12" s="1">
-        <v>978.340000</v>
+        <v>978.34</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.246000</v>
+        <v>-103.246</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>18100.687303</v>
+        <v>18100.687302999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>5.027969</v>
+        <v>5.0279689999999997</v>
       </c>
       <c r="AV12" s="1">
-        <v>989.880000</v>
+        <v>989.88</v>
       </c>
       <c r="AW12" s="1">
-        <v>-125.164000</v>
+        <v>-125.164</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>18111.856216</v>
       </c>
       <c r="AZ12" s="1">
-        <v>5.031071</v>
+        <v>5.0310709999999998</v>
       </c>
       <c r="BA12" s="1">
-        <v>999.598000</v>
+        <v>999.59799999999996</v>
       </c>
       <c r="BB12" s="1">
-        <v>-144.132000</v>
+        <v>-144.13200000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>18122.826730</v>
+        <v>18122.826730000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>5.034119</v>
+        <v>5.0341189999999996</v>
       </c>
       <c r="BF12" s="1">
-        <v>1045.290000</v>
+        <v>1045.29</v>
       </c>
       <c r="BG12" s="1">
-        <v>-229.938000</v>
+        <v>-229.93799999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>18134.460394</v>
+        <v>18134.460394000002</v>
       </c>
       <c r="BJ12" s="1">
-        <v>5.037350</v>
+        <v>5.03735</v>
       </c>
       <c r="BK12" s="1">
-        <v>1125.420000</v>
+        <v>1125.42</v>
       </c>
       <c r="BL12" s="1">
-        <v>-367.617000</v>
+        <v>-367.61700000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>18145.832669</v>
+        <v>18145.832668999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>5.040509</v>
+        <v>5.0405090000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1257.890000</v>
+        <v>1257.8900000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-580.517000</v>
+        <v>-580.51700000000005</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>18156.707453</v>
+        <v>18156.707452999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>5.043530</v>
+        <v>5.0435299999999996</v>
       </c>
       <c r="BU12" s="1">
-        <v>1406.760000</v>
+        <v>1406.76</v>
       </c>
       <c r="BV12" s="1">
-        <v>-807.915000</v>
+        <v>-807.91499999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>18167.505855</v>
+        <v>18167.505854999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>5.046529</v>
+        <v>5.0465289999999996</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1570.680000</v>
+        <v>1570.68</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1045.880000</v>
+        <v>-1045.8800000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>18179.882526</v>
+        <v>18179.882526000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>5.049967</v>
+        <v>5.0499669999999997</v>
       </c>
       <c r="CE12" s="1">
-        <v>1985.170000</v>
+        <v>1985.17</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1602.380000</v>
+        <v>-1602.38</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>18007.435954</v>
       </c>
       <c r="B13" s="1">
-        <v>5.002066</v>
+        <v>5.0020660000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>899.040000</v>
+        <v>899.04</v>
       </c>
       <c r="D13" s="1">
-        <v>-193.841000</v>
+        <v>-193.84100000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>18017.501767</v>
+        <v>18017.501767000002</v>
       </c>
       <c r="G13" s="1">
-        <v>5.004862</v>
+        <v>5.0048620000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>915.568000</v>
+        <v>915.56799999999998</v>
       </c>
       <c r="I13" s="1">
-        <v>-164.187000</v>
+        <v>-164.18700000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>18027.654376</v>
+        <v>18027.654375999999</v>
       </c>
       <c r="L13" s="1">
         <v>5.007682</v>
       </c>
       <c r="M13" s="1">
-        <v>936.701000</v>
+        <v>936.70100000000002</v>
       </c>
       <c r="N13" s="1">
-        <v>-117.537000</v>
+        <v>-117.53700000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>18037.876722</v>
+        <v>18037.876722000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>5.010521</v>
+        <v>5.0105209999999998</v>
       </c>
       <c r="R13" s="1">
-        <v>942.983000</v>
+        <v>942.98299999999995</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.490000</v>
+        <v>-102.49</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>18048.460060</v>
+        <v>18048.460060000001</v>
       </c>
       <c r="V13" s="1">
-        <v>5.013461</v>
+        <v>5.0134610000000004</v>
       </c>
       <c r="W13" s="1">
-        <v>949.276000</v>
+        <v>949.27599999999995</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.052700</v>
+        <v>-89.052700000000002</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>18058.664255</v>
       </c>
       <c r="AA13" s="1">
-        <v>5.016296</v>
+        <v>5.0162959999999996</v>
       </c>
       <c r="AB13" s="1">
-        <v>956.291000</v>
+        <v>956.29100000000005</v>
       </c>
       <c r="AC13" s="1">
-        <v>-79.989200</v>
+        <v>-79.989199999999997</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>18069.078790</v>
+        <v>18069.07879</v>
       </c>
       <c r="AF13" s="1">
-        <v>5.019189</v>
+        <v>5.0191889999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>961.138000</v>
+        <v>961.13800000000003</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.828800</v>
+        <v>-79.828800000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>18079.564707</v>
+        <v>18079.564707000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>5.022101</v>
+        <v>5.0221010000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>969.097000</v>
+        <v>969.09699999999998</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.967200</v>
+        <v>-87.967200000000005</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>18090.323893</v>
+        <v>18090.323893000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>5.025090</v>
+        <v>5.0250899999999996</v>
       </c>
       <c r="AQ13" s="1">
-        <v>978.343000</v>
+        <v>978.34299999999996</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.224000</v>
+        <v>-103.224</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>18101.051366</v>
       </c>
       <c r="AU13" s="1">
-        <v>5.028070</v>
+        <v>5.0280699999999996</v>
       </c>
       <c r="AV13" s="1">
-        <v>989.873000</v>
+        <v>989.87300000000005</v>
       </c>
       <c r="AW13" s="1">
-        <v>-125.172000</v>
+        <v>-125.172</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>18112.570455</v>
+        <v>18112.570455000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>5.031270</v>
+        <v>5.0312700000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>999.573000</v>
+        <v>999.57299999999998</v>
       </c>
       <c r="BB13" s="1">
-        <v>-144.120000</v>
+        <v>-144.12</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>18123.550393</v>
+        <v>18123.550393000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>5.034320</v>
+        <v>5.0343200000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1045.290000</v>
+        <v>1045.29</v>
       </c>
       <c r="BG13" s="1">
-        <v>-229.951000</v>
+        <v>-229.95099999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>18134.836396</v>
+        <v>18134.836395999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>5.037455</v>
+        <v>5.0374549999999996</v>
       </c>
       <c r="BK13" s="1">
-        <v>1125.350000</v>
+        <v>1125.3499999999999</v>
       </c>
       <c r="BL13" s="1">
-        <v>-367.635000</v>
+        <v>-367.63499999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>18146.238925</v>
+        <v>18146.238925000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>5.040622</v>
+        <v>5.0406219999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1257.880000</v>
+        <v>1257.8800000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-580.522000</v>
+        <v>-580.52200000000005</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>18157.121149</v>
+        <v>18157.121148999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>5.043645</v>
+        <v>5.0436449999999997</v>
       </c>
       <c r="BU13" s="1">
-        <v>1406.850000</v>
+        <v>1406.85</v>
       </c>
       <c r="BV13" s="1">
-        <v>-807.846000</v>
+        <v>-807.846</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>18168.231791</v>
+        <v>18168.231790999998</v>
       </c>
       <c r="BY13" s="1">
-        <v>5.046731</v>
+        <v>5.0467310000000003</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1570.520000</v>
+        <v>1570.52</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1045.930000</v>
+        <v>-1045.93</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>18180.091342</v>
       </c>
       <c r="CD13" s="1">
-        <v>5.050025</v>
+        <v>5.0500249999999998</v>
       </c>
       <c r="CE13" s="1">
-        <v>1986.430000</v>
+        <v>1986.43</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1601.200000</v>
+        <v>-1601.2</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>18007.780706</v>
+        <v>18007.780706000001</v>
       </c>
       <c r="B14" s="1">
-        <v>5.002161</v>
+        <v>5.0021610000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>899.063000</v>
+        <v>899.06299999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-193.851000</v>
+        <v>-193.851</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>18017.846021</v>
+        <v>18017.846021000001</v>
       </c>
       <c r="G14" s="1">
-        <v>5.004957</v>
+        <v>5.0049570000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>915.233000</v>
+        <v>915.23299999999995</v>
       </c>
       <c r="I14" s="1">
-        <v>-164.326000</v>
+        <v>-164.32599999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>18028.070550</v>
+        <v>18028.07055</v>
       </c>
       <c r="L14" s="1">
-        <v>5.007797</v>
+        <v>5.0077970000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>936.607000</v>
+        <v>936.60699999999997</v>
       </c>
       <c r="N14" s="1">
-        <v>-117.423000</v>
+        <v>-117.423</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>18038.303978</v>
       </c>
       <c r="Q14" s="1">
-        <v>5.010640</v>
+        <v>5.0106400000000004</v>
       </c>
       <c r="R14" s="1">
-        <v>943.005000</v>
+        <v>943.005</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.482000</v>
+        <v>-102.482</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>18048.759148</v>
+        <v>18048.759148000001</v>
       </c>
       <c r="V14" s="1">
-        <v>5.013544</v>
+        <v>5.0135439999999996</v>
       </c>
       <c r="W14" s="1">
-        <v>949.272000</v>
+        <v>949.27200000000005</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.092600</v>
+        <v>-89.092600000000004</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>18058.943503</v>
+        <v>18058.943502999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>5.016373</v>
+        <v>5.0163729999999997</v>
       </c>
       <c r="AB14" s="1">
-        <v>956.227000</v>
+        <v>956.22699999999998</v>
       </c>
       <c r="AC14" s="1">
-        <v>-79.935800</v>
+        <v>-79.9358</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>18069.423975</v>
+        <v>18069.423975000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>5.019284</v>
+        <v>5.0192839999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>961.036000</v>
+        <v>961.03599999999994</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.975700</v>
+        <v>-79.975700000000003</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>18079.912868</v>
+        <v>18079.912867999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>5.022198</v>
+        <v>5.0221980000000004</v>
       </c>
       <c r="AL14" s="1">
-        <v>969.069000</v>
+        <v>969.06899999999996</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.960600</v>
+        <v>-87.960599999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>18090.678570</v>
+        <v>18090.67857</v>
       </c>
       <c r="AP14" s="1">
         <v>5.025188</v>
       </c>
       <c r="AQ14" s="1">
-        <v>978.327000</v>
+        <v>978.327</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.232000</v>
+        <v>-103.232</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>18101.789413</v>
+        <v>18101.789412999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>5.028275</v>
+        <v>5.0282749999999998</v>
       </c>
       <c r="AV14" s="1">
-        <v>989.873000</v>
+        <v>989.87300000000005</v>
       </c>
       <c r="AW14" s="1">
-        <v>-125.155000</v>
+        <v>-125.155</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>18112.930055</v>
+        <v>18112.930055000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>5.031369</v>
+        <v>5.0313689999999998</v>
       </c>
       <c r="BA14" s="1">
-        <v>999.611000</v>
+        <v>999.61099999999999</v>
       </c>
       <c r="BB14" s="1">
-        <v>-144.149000</v>
+        <v>-144.149</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>18123.935848</v>
+        <v>18123.935848000001</v>
       </c>
       <c r="BE14" s="1">
         <v>5.034427</v>
       </c>
       <c r="BF14" s="1">
-        <v>1045.280000</v>
+        <v>1045.28</v>
       </c>
       <c r="BG14" s="1">
-        <v>-229.968000</v>
+        <v>-229.96799999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>18135.210846</v>
+        <v>18135.210846000002</v>
       </c>
       <c r="BJ14" s="1">
-        <v>5.037559</v>
+        <v>5.0375589999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1125.420000</v>
+        <v>1125.42</v>
       </c>
       <c r="BL14" s="1">
-        <v>-367.583000</v>
+        <v>-367.58300000000003</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>18146.969002</v>
+        <v>18146.969002000002</v>
       </c>
       <c r="BO14" s="1">
-        <v>5.040825</v>
+        <v>5.0408249999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1257.920000</v>
+        <v>1257.92</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-580.546000</v>
+        <v>-580.54600000000005</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>18157.846765</v>
+        <v>18157.846764999998</v>
       </c>
       <c r="BT14" s="1">
-        <v>5.043846</v>
+        <v>5.0438460000000003</v>
       </c>
       <c r="BU14" s="1">
-        <v>1406.900000</v>
+        <v>1406.9</v>
       </c>
       <c r="BV14" s="1">
-        <v>-807.970000</v>
+        <v>-807.97</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>18168.349054</v>
+        <v>18168.349053999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>5.046764</v>
+        <v>5.0467639999999996</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1570.710000</v>
+        <v>1570.71</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1046.070000</v>
+        <v>-1046.07</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>18180.610655</v>
       </c>
       <c r="CD14" s="1">
-        <v>5.050170</v>
+        <v>5.0501699999999996</v>
       </c>
       <c r="CE14" s="1">
-        <v>1986.170000</v>
+        <v>1986.17</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1601.930000</v>
+        <v>-1601.93</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>18008.121458</v>
+        <v>18008.121458000001</v>
       </c>
       <c r="B15" s="1">
         <v>5.002256</v>
       </c>
       <c r="C15" s="1">
-        <v>898.866000</v>
+        <v>898.86599999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-194.012000</v>
+        <v>-194.012</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>18018.266596</v>
+        <v>18018.266596000001</v>
       </c>
       <c r="G15" s="1">
-        <v>5.005074</v>
+        <v>5.0050739999999996</v>
       </c>
       <c r="H15" s="1">
-        <v>915.465000</v>
+        <v>915.46500000000003</v>
       </c>
       <c r="I15" s="1">
-        <v>-164.328000</v>
+        <v>-164.328</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>18028.346327</v>
+        <v>18028.346326999999</v>
       </c>
       <c r="L15" s="1">
-        <v>5.007874</v>
+        <v>5.0078740000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>936.801000</v>
+        <v>936.80100000000004</v>
       </c>
       <c r="N15" s="1">
-        <v>-117.420000</v>
+        <v>-117.42</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>18038.586201</v>
+        <v>18038.586200999998</v>
       </c>
       <c r="Q15" s="1">
-        <v>5.010718</v>
+        <v>5.0107179999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>942.991000</v>
+        <v>942.99099999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.441000</v>
+        <v>-102.441</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>18049.100923</v>
+        <v>18049.100923000002</v>
       </c>
       <c r="V15" s="1">
-        <v>5.013639</v>
+        <v>5.0136390000000004</v>
       </c>
       <c r="W15" s="1">
-        <v>949.233000</v>
+        <v>949.23299999999995</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.040000</v>
+        <v>-89.04</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>18059.288755</v>
+        <v>18059.288755000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>5.016469</v>
+        <v>5.0164689999999998</v>
       </c>
       <c r="AB15" s="1">
-        <v>956.097000</v>
+        <v>956.09699999999998</v>
       </c>
       <c r="AC15" s="1">
-        <v>-79.938300</v>
+        <v>-79.938299999999998</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>18069.766209</v>
+        <v>18069.766209000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>5.019380</v>
+        <v>5.01938</v>
       </c>
       <c r="AG15" s="1">
-        <v>961.187000</v>
+        <v>961.18700000000001</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.862300</v>
+        <v>-79.862300000000005</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>18080.612721</v>
+        <v>18080.612721000001</v>
       </c>
       <c r="AK15" s="1">
         <v>5.022392</v>
       </c>
       <c r="AL15" s="1">
-        <v>969.105000</v>
+        <v>969.10500000000002</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.962900</v>
+        <v>-87.962900000000005</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>18091.405171</v>
+        <v>18091.405170999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>5.025390</v>
+        <v>5.0253899999999998</v>
       </c>
       <c r="AQ15" s="1">
-        <v>978.364000</v>
+        <v>978.36400000000003</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.246000</v>
+        <v>-103.246</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>18102.168388</v>
+        <v>18102.168387999998</v>
       </c>
       <c r="AU15" s="1">
-        <v>5.028380</v>
+        <v>5.0283800000000003</v>
       </c>
       <c r="AV15" s="1">
-        <v>989.859000</v>
+        <v>989.85900000000004</v>
       </c>
       <c r="AW15" s="1">
-        <v>-125.176000</v>
+        <v>-125.176</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>18113.288662</v>
+        <v>18113.288661999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>5.031469</v>
+        <v>5.0314690000000004</v>
       </c>
       <c r="BA15" s="1">
-        <v>999.583000</v>
+        <v>999.58299999999997</v>
       </c>
       <c r="BB15" s="1">
-        <v>-144.127000</v>
+        <v>-144.12700000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>18124.300344</v>
+        <v>18124.300343999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>5.034528</v>
+        <v>5.0345279999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1045.280000</v>
+        <v>1045.28</v>
       </c>
       <c r="BG15" s="1">
-        <v>-229.940000</v>
+        <v>-229.94</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>18135.906234</v>
+        <v>18135.906233999998</v>
       </c>
       <c r="BJ15" s="1">
-        <v>5.037752</v>
+        <v>5.0377520000000002</v>
       </c>
       <c r="BK15" s="1">
-        <v>1125.380000</v>
+        <v>1125.3800000000001</v>
       </c>
       <c r="BL15" s="1">
-        <v>-367.557000</v>
+        <v>-367.55700000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>18147.475417</v>
+        <v>18147.475417000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>5.040965</v>
+        <v>5.0409649999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1257.890000</v>
+        <v>1257.8900000000001</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-580.542000</v>
+        <v>-580.54200000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>18157.955388</v>
+        <v>18157.955387999998</v>
       </c>
       <c r="BT15" s="1">
         <v>5.043876</v>
       </c>
       <c r="BU15" s="1">
-        <v>1407.050000</v>
+        <v>1407.05</v>
       </c>
       <c r="BV15" s="1">
-        <v>-807.908000</v>
+        <v>-807.90800000000002</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>18168.787517</v>
+        <v>18168.787517000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>5.046885</v>
+        <v>5.0468849999999996</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1570.630000</v>
+        <v>1570.63</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1045.940000</v>
+        <v>-1045.94</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>18181.164025</v>
+        <v>18181.164024999998</v>
       </c>
       <c r="CD15" s="1">
-        <v>5.050323</v>
+        <v>5.0503229999999997</v>
       </c>
       <c r="CE15" s="1">
-        <v>1985.060000</v>
+        <v>1985.06</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1602.440000</v>
+        <v>-1602.44</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>18008.549473</v>
+        <v>18008.549472999999</v>
       </c>
       <c r="B16" s="1">
-        <v>5.002375</v>
+        <v>5.0023749999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>899.016000</v>
+        <v>899.01599999999996</v>
       </c>
       <c r="D16" s="1">
-        <v>-194.070000</v>
+        <v>-194.07</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>18018.536420</v>
+        <v>18018.53642</v>
       </c>
       <c r="G16" s="1">
-        <v>5.005149</v>
+        <v>5.0051490000000003</v>
       </c>
       <c r="H16" s="1">
-        <v>915.145000</v>
+        <v>915.14499999999998</v>
       </c>
       <c r="I16" s="1">
-        <v>-164.273000</v>
+        <v>-164.273</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>18028.694294</v>
+        <v>18028.694294000001</v>
       </c>
       <c r="L16" s="1">
-        <v>5.007971</v>
+        <v>5.0079710000000004</v>
       </c>
       <c r="M16" s="1">
-        <v>936.667000</v>
+        <v>936.66700000000003</v>
       </c>
       <c r="N16" s="1">
-        <v>-117.560000</v>
+        <v>-117.56</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>18038.930425</v>
+        <v>18038.930424999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>5.010814</v>
+        <v>5.0108139999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>943.010000</v>
+        <v>943.01</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.453000</v>
+        <v>-102.453</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>18049.445115</v>
+        <v>18049.445114999999</v>
       </c>
       <c r="V16" s="1">
-        <v>5.013735</v>
+        <v>5.0137349999999996</v>
       </c>
       <c r="W16" s="1">
-        <v>949.118000</v>
+        <v>949.11800000000005</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.023200</v>
+        <v>-89.023200000000003</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>18059.972238</v>
+        <v>18059.972237999998</v>
       </c>
       <c r="AA16" s="1">
-        <v>5.016659</v>
+        <v>5.0166589999999998</v>
       </c>
       <c r="AB16" s="1">
-        <v>956.288000</v>
+        <v>956.28800000000001</v>
       </c>
       <c r="AC16" s="1">
-        <v>-79.965800</v>
+        <v>-79.965800000000002</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>18070.456639</v>
@@ -4169,255 +4585,255 @@
         <v>5.019571</v>
       </c>
       <c r="AG16" s="1">
-        <v>961.159000</v>
+        <v>961.15899999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.867200</v>
+        <v>-79.867199999999997</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>18080.959921</v>
+        <v>18080.959921000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>5.022489</v>
+        <v>5.0224890000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>969.081000</v>
+        <v>969.08100000000002</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.970600</v>
+        <v>-87.970600000000005</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>18091.786099</v>
+        <v>18091.786099000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>5.025496</v>
+        <v>5.0254960000000004</v>
       </c>
       <c r="AQ16" s="1">
-        <v>978.341000</v>
+        <v>978.34100000000001</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.249000</v>
+        <v>-103.249</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>18102.533445</v>
+        <v>18102.533445000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>5.028482</v>
+        <v>5.0284820000000003</v>
       </c>
       <c r="AV16" s="1">
-        <v>989.872000</v>
+        <v>989.87199999999996</v>
       </c>
       <c r="AW16" s="1">
-        <v>-125.171000</v>
+        <v>-125.17100000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>18113.961239</v>
       </c>
       <c r="AZ16" s="1">
-        <v>5.031656</v>
+        <v>5.0316559999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>999.586000</v>
+        <v>999.58600000000001</v>
       </c>
       <c r="BB16" s="1">
-        <v>-144.133000</v>
+        <v>-144.13300000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>18124.961511</v>
+        <v>18124.961511000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>5.034712</v>
+        <v>5.0347119999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1045.280000</v>
+        <v>1045.28</v>
       </c>
       <c r="BG16" s="1">
-        <v>-229.945000</v>
+        <v>-229.94499999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>18136.336760</v>
+        <v>18136.336759999998</v>
       </c>
       <c r="BJ16" s="1">
         <v>5.037871</v>
       </c>
       <c r="BK16" s="1">
-        <v>1125.380000</v>
+        <v>1125.3800000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-367.651000</v>
+        <v>-367.65100000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>18147.896522</v>
+        <v>18147.896521999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>5.041082</v>
+        <v>5.0410820000000003</v>
       </c>
       <c r="BP16" s="1">
-        <v>1257.870000</v>
+        <v>1257.8699999999999</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-580.538000</v>
+        <v>-580.53800000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>18158.390380</v>
+        <v>18158.390380000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>5.043997</v>
+        <v>5.0439970000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1407.100000</v>
+        <v>1407.1</v>
       </c>
       <c r="BV16" s="1">
-        <v>-807.972000</v>
+        <v>-807.97199999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>18169.243373</v>
+        <v>18169.243373000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>5.047012</v>
+        <v>5.0470119999999996</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1570.650000</v>
+        <v>1570.65</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1045.900000</v>
+        <v>-1045.9000000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>18181.690476</v>
       </c>
       <c r="CD16" s="1">
-        <v>5.050470</v>
+        <v>5.0504699999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>1986.600000</v>
+        <v>1986.6</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1601.400000</v>
+        <v>-1601.4</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>18008.825744</v>
+        <v>18008.825744000002</v>
       </c>
       <c r="B17" s="1">
-        <v>5.002452</v>
+        <v>5.0024519999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>899.069000</v>
+        <v>899.06899999999996</v>
       </c>
       <c r="D17" s="1">
-        <v>-194.001000</v>
+        <v>-194.001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>18018.879690</v>
+        <v>18018.879690000002</v>
       </c>
       <c r="G17" s="1">
-        <v>5.005244</v>
+        <v>5.0052440000000002</v>
       </c>
       <c r="H17" s="1">
-        <v>915.241000</v>
+        <v>915.24099999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-164.399000</v>
+        <v>-164.399</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>18029.038710</v>
+        <v>18029.038710000001</v>
       </c>
       <c r="L17" s="1">
-        <v>5.008066</v>
+        <v>5.0080660000000004</v>
       </c>
       <c r="M17" s="1">
-        <v>936.785000</v>
+        <v>936.78499999999997</v>
       </c>
       <c r="N17" s="1">
-        <v>-117.302000</v>
+        <v>-117.30200000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>18039.282584</v>
       </c>
       <c r="Q17" s="1">
-        <v>5.010912</v>
+        <v>5.0109120000000003</v>
       </c>
       <c r="R17" s="1">
-        <v>943.015000</v>
+        <v>943.01499999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.507000</v>
+        <v>-102.50700000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>18050.130587</v>
       </c>
       <c r="V17" s="1">
-        <v>5.013925</v>
+        <v>5.0139250000000004</v>
       </c>
       <c r="W17" s="1">
-        <v>949.210000</v>
+        <v>949.21</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.034500</v>
+        <v>-89.034499999999994</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>18060.334284</v>
       </c>
       <c r="AA17" s="1">
-        <v>5.016760</v>
+        <v>5.0167599999999997</v>
       </c>
       <c r="AB17" s="1">
-        <v>956.277000</v>
+        <v>956.27700000000004</v>
       </c>
       <c r="AC17" s="1">
-        <v>-79.880600</v>
+        <v>-79.880600000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>18070.798906</v>
@@ -4426,405 +4842,405 @@
         <v>5.019666</v>
       </c>
       <c r="AG17" s="1">
-        <v>961.089000</v>
+        <v>961.08900000000006</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.822400</v>
+        <v>-79.822400000000002</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>18081.310096</v>
+        <v>18081.310096000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>5.022586</v>
+        <v>5.0225860000000004</v>
       </c>
       <c r="AL17" s="1">
-        <v>969.093000</v>
+        <v>969.09299999999996</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.979500</v>
+        <v>-87.979500000000002</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>18092.157108</v>
+        <v>18092.157107999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>5.025599</v>
+        <v>5.0255989999999997</v>
       </c>
       <c r="AQ17" s="1">
-        <v>978.357000</v>
+        <v>978.35699999999997</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.248000</v>
+        <v>-103.248</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>18103.195076</v>
       </c>
       <c r="AU17" s="1">
-        <v>5.028665</v>
+        <v>5.0286650000000002</v>
       </c>
       <c r="AV17" s="1">
-        <v>989.874000</v>
+        <v>989.87400000000002</v>
       </c>
       <c r="AW17" s="1">
-        <v>-125.172000</v>
+        <v>-125.172</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>18114.366469</v>
+        <v>18114.366469000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>5.031768</v>
+        <v>5.0317679999999996</v>
       </c>
       <c r="BA17" s="1">
-        <v>999.593000</v>
+        <v>999.59299999999996</v>
       </c>
       <c r="BB17" s="1">
-        <v>-144.131000</v>
+        <v>-144.131</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>18125.415846</v>
       </c>
       <c r="BE17" s="1">
-        <v>5.034838</v>
+        <v>5.0348379999999997</v>
       </c>
       <c r="BF17" s="1">
-        <v>1045.270000</v>
+        <v>1045.27</v>
       </c>
       <c r="BG17" s="1">
-        <v>-229.976000</v>
+        <v>-229.976</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>18136.716199</v>
+        <v>18136.716198999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>5.037977</v>
+        <v>5.0379769999999997</v>
       </c>
       <c r="BK17" s="1">
-        <v>1125.350000</v>
+        <v>1125.3499999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-367.592000</v>
+        <v>-367.59199999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>18148.289383</v>
+        <v>18148.289382999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>5.041191</v>
+        <v>5.0411910000000004</v>
       </c>
       <c r="BP17" s="1">
-        <v>1257.920000</v>
+        <v>1257.92</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-580.525000</v>
+        <v>-580.52499999999998</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>18158.802588</v>
+        <v>18158.802587999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>5.044112</v>
+        <v>5.0441120000000002</v>
       </c>
       <c r="BU17" s="1">
-        <v>1407.120000</v>
+        <v>1407.12</v>
       </c>
       <c r="BV17" s="1">
-        <v>-808.141000</v>
+        <v>-808.14099999999996</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>18169.691228</v>
       </c>
       <c r="BY17" s="1">
-        <v>5.047136</v>
+        <v>5.0471360000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1570.680000</v>
+        <v>1570.68</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1045.990000</v>
+        <v>-1045.99</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>18182.212235</v>
+        <v>18182.212234999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>5.050615</v>
+        <v>5.0506149999999996</v>
       </c>
       <c r="CE17" s="1">
-        <v>1984.890000</v>
+        <v>1984.89</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1600.170000</v>
+        <v>-1600.17</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>18009.162663</v>
+        <v>18009.162662999999</v>
       </c>
       <c r="B18" s="1">
-        <v>5.002545</v>
+        <v>5.0025449999999996</v>
       </c>
       <c r="C18" s="1">
-        <v>898.885000</v>
+        <v>898.88499999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-193.980000</v>
+        <v>-193.98</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>18019.223419</v>
+        <v>18019.223419000002</v>
       </c>
       <c r="G18" s="1">
-        <v>5.005340</v>
+        <v>5.0053400000000003</v>
       </c>
       <c r="H18" s="1">
-        <v>915.262000</v>
+        <v>915.26199999999994</v>
       </c>
       <c r="I18" s="1">
-        <v>-164.329000</v>
+        <v>-164.32900000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>18029.727401</v>
       </c>
       <c r="L18" s="1">
-        <v>5.008258</v>
+        <v>5.0082579999999997</v>
       </c>
       <c r="M18" s="1">
-        <v>936.964000</v>
+        <v>936.96400000000006</v>
       </c>
       <c r="N18" s="1">
-        <v>-117.511000</v>
+        <v>-117.511</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>18039.977481</v>
+        <v>18039.977481000002</v>
       </c>
       <c r="Q18" s="1">
-        <v>5.011105</v>
+        <v>5.0111049999999997</v>
       </c>
       <c r="R18" s="1">
-        <v>943.002000</v>
+        <v>943.00199999999995</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.510000</v>
+        <v>-102.51</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>18050.474313</v>
+        <v>18050.474312999999</v>
       </c>
       <c r="V18" s="1">
-        <v>5.014021</v>
+        <v>5.0140209999999996</v>
       </c>
       <c r="W18" s="1">
-        <v>949.169000</v>
+        <v>949.16899999999998</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.014500</v>
+        <v>-89.014499999999998</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>18060.684460</v>
+        <v>18060.68446</v>
       </c>
       <c r="AA18" s="1">
-        <v>5.016857</v>
+        <v>5.0168569999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>956.141000</v>
+        <v>956.14099999999996</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.007500</v>
+        <v>-80.007499999999993</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>18071.142142</v>
+        <v>18071.142142000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>5.019762</v>
+        <v>5.0197620000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>961.176000</v>
+        <v>961.17600000000004</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.815800</v>
+        <v>-79.815799999999996</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>18081.972257</v>
+        <v>18081.972257000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>5.022770</v>
+        <v>5.0227700000000004</v>
       </c>
       <c r="AL18" s="1">
-        <v>969.098000</v>
+        <v>969.09799999999996</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.952900</v>
+        <v>-87.9529</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>18092.824226</v>
+        <v>18092.824226000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>5.025785</v>
+        <v>5.0257849999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>978.346000</v>
+        <v>978.346</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.238000</v>
+        <v>-103.238</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>18103.662803</v>
+        <v>18103.662802999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>5.028795</v>
+        <v>5.0287949999999997</v>
       </c>
       <c r="AV18" s="1">
-        <v>989.881000</v>
+        <v>989.88099999999997</v>
       </c>
       <c r="AW18" s="1">
-        <v>-125.163000</v>
+        <v>-125.163</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>18114.753266</v>
       </c>
       <c r="AZ18" s="1">
-        <v>5.031876</v>
+        <v>5.0318759999999996</v>
       </c>
       <c r="BA18" s="1">
-        <v>999.581000</v>
+        <v>999.58100000000002</v>
       </c>
       <c r="BB18" s="1">
-        <v>-144.112000</v>
+        <v>-144.11199999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>18125.794789</v>
       </c>
       <c r="BE18" s="1">
-        <v>5.034943</v>
+        <v>5.0349430000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1045.270000</v>
+        <v>1045.27</v>
       </c>
       <c r="BG18" s="1">
-        <v>-229.954000</v>
+        <v>-229.95400000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>18137.087704</v>
+        <v>18137.087704000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>5.038080</v>
+        <v>5.0380799999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1125.400000</v>
+        <v>1125.4000000000001</v>
       </c>
       <c r="BL18" s="1">
-        <v>-367.643000</v>
+        <v>-367.64299999999997</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>18148.711480</v>
+        <v>18148.711480000002</v>
       </c>
       <c r="BO18" s="1">
         <v>5.041309</v>
       </c>
       <c r="BP18" s="1">
-        <v>1257.940000</v>
+        <v>1257.94</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-580.519000</v>
+        <v>-580.51900000000001</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>18159.240026</v>
+        <v>18159.240025999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>5.044233</v>
+        <v>5.0442330000000002</v>
       </c>
       <c r="BU18" s="1">
-        <v>1407.110000</v>
+        <v>1407.11</v>
       </c>
       <c r="BV18" s="1">
-        <v>-808.101000</v>
+        <v>-808.101</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>18170.148330</v>
+        <v>18170.14833</v>
       </c>
       <c r="BY18" s="1">
-        <v>5.047263</v>
+        <v>5.0472630000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1570.540000</v>
+        <v>1570.54</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1046.000000</v>
+        <v>-1046</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>18182.750892</v>
@@ -4833,649 +5249,649 @@
         <v>5.050764</v>
       </c>
       <c r="CE18" s="1">
-        <v>1985.780000</v>
+        <v>1985.78</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1602.550000</v>
+        <v>-1602.55</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>18009.505791</v>
       </c>
       <c r="B19" s="1">
-        <v>5.002640</v>
+        <v>5.0026400000000004</v>
       </c>
       <c r="C19" s="1">
-        <v>899.075000</v>
+        <v>899.07500000000005</v>
       </c>
       <c r="D19" s="1">
-        <v>-193.895000</v>
+        <v>-193.89500000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>18019.912854</v>
+        <v>18019.912853999998</v>
       </c>
       <c r="G19" s="1">
-        <v>5.005531</v>
+        <v>5.0055310000000004</v>
       </c>
       <c r="H19" s="1">
-        <v>915.404000</v>
+        <v>915.404</v>
       </c>
       <c r="I19" s="1">
-        <v>-164.130000</v>
+        <v>-164.13</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>18030.076850</v>
+        <v>18030.076850000001</v>
       </c>
       <c r="L19" s="1">
-        <v>5.008355</v>
+        <v>5.0083549999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>936.769000</v>
+        <v>936.76900000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-117.559000</v>
+        <v>-117.559</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>18040.327172</v>
+        <v>18040.327172000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>5.011202</v>
+        <v>5.0112019999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>942.988000</v>
+        <v>942.98800000000006</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.473000</v>
+        <v>-102.473</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>18050.816090</v>
+        <v>18050.81609</v>
       </c>
       <c r="V19" s="1">
-        <v>5.014116</v>
+        <v>5.0141159999999996</v>
       </c>
       <c r="W19" s="1">
-        <v>949.185000</v>
+        <v>949.18499999999995</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.121000</v>
+        <v>-89.120999999999995</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>18061.340204</v>
       </c>
       <c r="AA19" s="1">
-        <v>5.017039</v>
+        <v>5.0170389999999996</v>
       </c>
       <c r="AB19" s="1">
-        <v>956.236000</v>
+        <v>956.23599999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-79.901700</v>
+        <v>-79.901700000000005</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>18071.797325</v>
       </c>
       <c r="AF19" s="1">
-        <v>5.019944</v>
+        <v>5.0199439999999997</v>
       </c>
       <c r="AG19" s="1">
-        <v>961.136000</v>
+        <v>961.13599999999997</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.838400</v>
+        <v>-79.838399999999993</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>18082.352191</v>
+        <v>18082.352191000002</v>
       </c>
       <c r="AK19" s="1">
-        <v>5.022876</v>
+        <v>5.0228760000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>969.093000</v>
+        <v>969.09299999999996</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.984900</v>
+        <v>-87.984899999999996</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>18093.259714</v>
       </c>
       <c r="AP19" s="1">
-        <v>5.025905</v>
+        <v>5.0259049999999998</v>
       </c>
       <c r="AQ19" s="1">
-        <v>978.328000</v>
+        <v>978.32799999999997</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.250000</v>
+        <v>-103.25</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>18104.027395</v>
+        <v>18104.027395000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>5.028896</v>
+        <v>5.0288959999999996</v>
       </c>
       <c r="AV19" s="1">
-        <v>989.874000</v>
+        <v>989.87400000000002</v>
       </c>
       <c r="AW19" s="1">
-        <v>-125.166000</v>
+        <v>-125.166</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>18115.110506</v>
+        <v>18115.110506000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>5.031975</v>
+        <v>5.0319750000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>999.599000</v>
+        <v>999.59900000000005</v>
       </c>
       <c r="BB19" s="1">
-        <v>-144.121000</v>
+        <v>-144.12100000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>18126.139541</v>
       </c>
       <c r="BE19" s="1">
-        <v>5.035039</v>
+        <v>5.0350390000000003</v>
       </c>
       <c r="BF19" s="1">
-        <v>1045.290000</v>
+        <v>1045.29</v>
       </c>
       <c r="BG19" s="1">
-        <v>-229.936000</v>
+        <v>-229.93600000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>18137.503351</v>
+        <v>18137.503350999999</v>
       </c>
       <c r="BJ19" s="1">
         <v>5.038195</v>
       </c>
       <c r="BK19" s="1">
-        <v>1125.370000</v>
+        <v>1125.3699999999999</v>
       </c>
       <c r="BL19" s="1">
-        <v>-367.616000</v>
+        <v>-367.61599999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>18149.111223</v>
       </c>
       <c r="BO19" s="1">
-        <v>5.041420</v>
+        <v>5.0414199999999996</v>
       </c>
       <c r="BP19" s="1">
-        <v>1257.900000</v>
+        <v>1257.9000000000001</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-580.533000</v>
+        <v>-580.53300000000002</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>18159.656169</v>
+        <v>18159.656169000002</v>
       </c>
       <c r="BT19" s="1">
-        <v>5.044349</v>
+        <v>5.0443490000000004</v>
       </c>
       <c r="BU19" s="1">
-        <v>1407.210000</v>
+        <v>1407.21</v>
       </c>
       <c r="BV19" s="1">
-        <v>-808.174000</v>
+        <v>-808.17399999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>18170.597915</v>
+        <v>18170.597914999998</v>
       </c>
       <c r="BY19" s="1">
-        <v>5.047388</v>
+        <v>5.0473879999999998</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1570.740000</v>
+        <v>1570.74</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1045.850000</v>
+        <v>-1045.8499999999999</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>18183.288554</v>
+        <v>18183.288553999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>5.050913</v>
+        <v>5.0509130000000004</v>
       </c>
       <c r="CE19" s="1">
-        <v>1985.880000</v>
+        <v>1985.88</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1600.540000</v>
+        <v>-1600.54</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>18010.187760</v>
+        <v>18010.187760000001</v>
       </c>
       <c r="B20" s="1">
-        <v>5.002830</v>
+        <v>5.0028300000000003</v>
       </c>
       <c r="C20" s="1">
-        <v>899.038000</v>
+        <v>899.03800000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-194.096000</v>
+        <v>-194.096</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>18020.259025</v>
+        <v>18020.259024999999</v>
       </c>
       <c r="G20" s="1">
-        <v>5.005628</v>
+        <v>5.0056279999999997</v>
       </c>
       <c r="H20" s="1">
-        <v>915.171000</v>
+        <v>915.17100000000005</v>
       </c>
       <c r="I20" s="1">
-        <v>-164.136000</v>
+        <v>-164.136</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>18030.423540</v>
+        <v>18030.42354</v>
       </c>
       <c r="L20" s="1">
         <v>5.008451</v>
       </c>
       <c r="M20" s="1">
-        <v>936.888000</v>
+        <v>936.88800000000003</v>
       </c>
       <c r="N20" s="1">
-        <v>-117.640000</v>
+        <v>-117.64</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>18040.676429</v>
+        <v>18040.676428999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>5.011299</v>
+        <v>5.0112990000000002</v>
       </c>
       <c r="R20" s="1">
-        <v>942.985000</v>
+        <v>942.98500000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.462000</v>
+        <v>-102.462</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>18051.460361</v>
+        <v>18051.460361000001</v>
       </c>
       <c r="V20" s="1">
-        <v>5.014295</v>
+        <v>5.0142949999999997</v>
       </c>
       <c r="W20" s="1">
-        <v>949.204000</v>
+        <v>949.20399999999995</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.018500</v>
+        <v>-89.018500000000003</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>18061.731053</v>
       </c>
       <c r="AA20" s="1">
-        <v>5.017148</v>
+        <v>5.0171479999999997</v>
       </c>
       <c r="AB20" s="1">
-        <v>956.258000</v>
+        <v>956.25800000000004</v>
       </c>
       <c r="AC20" s="1">
-        <v>-79.937900</v>
+        <v>-79.937899999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>18072.173293</v>
       </c>
       <c r="AF20" s="1">
-        <v>5.020048</v>
+        <v>5.0200480000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>961.120000</v>
+        <v>961.12</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.786600</v>
+        <v>-79.786600000000007</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>18082.706164</v>
+        <v>18082.706163999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>5.022974</v>
+        <v>5.0229739999999996</v>
       </c>
       <c r="AL20" s="1">
-        <v>969.098000</v>
+        <v>969.09799999999996</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.953100</v>
+        <v>-87.953100000000006</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>18093.621701</v>
       </c>
       <c r="AP20" s="1">
-        <v>5.026006</v>
+        <v>5.0260059999999998</v>
       </c>
       <c r="AQ20" s="1">
-        <v>978.353000</v>
+        <v>978.35299999999995</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.235000</v>
+        <v>-103.235</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>18104.392420</v>
+        <v>18104.39242</v>
       </c>
       <c r="AU20" s="1">
-        <v>5.028998</v>
+        <v>5.0289979999999996</v>
       </c>
       <c r="AV20" s="1">
-        <v>989.912000</v>
+        <v>989.91200000000003</v>
       </c>
       <c r="AW20" s="1">
-        <v>-125.165000</v>
+        <v>-125.16500000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>18115.534580</v>
+        <v>18115.53458</v>
       </c>
       <c r="AZ20" s="1">
-        <v>5.032093</v>
+        <v>5.0320929999999997</v>
       </c>
       <c r="BA20" s="1">
-        <v>999.596000</v>
+        <v>999.596</v>
       </c>
       <c r="BB20" s="1">
-        <v>-144.124000</v>
+        <v>-144.124</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>18126.560613</v>
+        <v>18126.560613000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>5.035156</v>
+        <v>5.0351559999999997</v>
       </c>
       <c r="BF20" s="1">
-        <v>1045.280000</v>
+        <v>1045.28</v>
       </c>
       <c r="BG20" s="1">
-        <v>-229.943000</v>
+        <v>-229.94300000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>18137.859479</v>
+        <v>18137.859478999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>5.038294</v>
+        <v>5.0382939999999996</v>
       </c>
       <c r="BK20" s="1">
-        <v>1125.410000</v>
+        <v>1125.4100000000001</v>
       </c>
       <c r="BL20" s="1">
-        <v>-367.574000</v>
+        <v>-367.57400000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>18149.531367</v>
       </c>
       <c r="BO20" s="1">
-        <v>5.041536</v>
+        <v>5.0415359999999998</v>
       </c>
       <c r="BP20" s="1">
-        <v>1257.890000</v>
+        <v>1257.8900000000001</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-580.558000</v>
+        <v>-580.55799999999999</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>18160.083226</v>
+        <v>18160.083225999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>5.044468</v>
+        <v>5.0444680000000002</v>
       </c>
       <c r="BU20" s="1">
-        <v>1407.200000</v>
+        <v>1407.2</v>
       </c>
       <c r="BV20" s="1">
-        <v>-808.213000</v>
+        <v>-808.21299999999997</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>18171.051792</v>
+        <v>18171.051791999998</v>
       </c>
       <c r="BY20" s="1">
-        <v>5.047514</v>
+        <v>5.0475139999999996</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1570.710000</v>
+        <v>1570.71</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1045.880000</v>
+        <v>-1045.8800000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>18183.829690</v>
+        <v>18183.829689999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>5.051064</v>
+        <v>5.0510640000000002</v>
       </c>
       <c r="CE20" s="1">
-        <v>1984.520000</v>
+        <v>1984.52</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1601.240000</v>
+        <v>-1601.24</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>18010.532974</v>
+        <v>18010.532974000002</v>
       </c>
       <c r="B21" s="1">
-        <v>5.002926</v>
+        <v>5.0029260000000004</v>
       </c>
       <c r="C21" s="1">
-        <v>898.924000</v>
+        <v>898.92399999999998</v>
       </c>
       <c r="D21" s="1">
-        <v>-194.066000</v>
+        <v>-194.066</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>18020.602257</v>
+        <v>18020.602256999999</v>
       </c>
       <c r="G21" s="1">
-        <v>5.005723</v>
+        <v>5.0057229999999997</v>
       </c>
       <c r="H21" s="1">
-        <v>915.569000</v>
+        <v>915.56899999999996</v>
       </c>
       <c r="I21" s="1">
-        <v>-164.316000</v>
+        <v>-164.316</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>18031.063394</v>
+        <v>18031.063394000001</v>
       </c>
       <c r="L21" s="1">
         <v>5.008629</v>
       </c>
       <c r="M21" s="1">
-        <v>936.601000</v>
+        <v>936.601</v>
       </c>
       <c r="N21" s="1">
-        <v>-117.585000</v>
+        <v>-117.58499999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>18041.318167</v>
+        <v>18041.318167000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>5.011477</v>
+        <v>5.0114770000000002</v>
       </c>
       <c r="R21" s="1">
-        <v>942.996000</v>
+        <v>942.99599999999998</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.445000</v>
+        <v>-102.44499999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>18051.848729</v>
+        <v>18051.848729000001</v>
       </c>
       <c r="V21" s="1">
-        <v>5.014402</v>
+        <v>5.0144019999999996</v>
       </c>
       <c r="W21" s="1">
-        <v>949.210000</v>
+        <v>949.21</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.034700</v>
+        <v>-89.034700000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>18062.079210</v>
+        <v>18062.07921</v>
       </c>
       <c r="AA21" s="1">
-        <v>5.017244</v>
+        <v>5.0172439999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>956.206000</v>
+        <v>956.20600000000002</v>
       </c>
       <c r="AC21" s="1">
-        <v>-79.911400</v>
+        <v>-79.9114</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>18072.515532</v>
+        <v>18072.515532000001</v>
       </c>
       <c r="AF21" s="1">
         <v>5.020143</v>
       </c>
       <c r="AG21" s="1">
-        <v>961.165000</v>
+        <v>961.16499999999996</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.791800</v>
+        <v>-79.791799999999995</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>18083.052048</v>
+        <v>18083.052048000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>5.023070</v>
+        <v>5.0230699999999997</v>
       </c>
       <c r="AL21" s="1">
-        <v>969.073000</v>
+        <v>969.07299999999998</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.977100</v>
+        <v>-87.977099999999993</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>18094.038601</v>
@@ -5484,422 +5900,422 @@
         <v>5.026122</v>
       </c>
       <c r="AQ21" s="1">
-        <v>978.365000</v>
+        <v>978.36500000000001</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.250000</v>
+        <v>-103.25</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>18104.817025</v>
       </c>
       <c r="AU21" s="1">
-        <v>5.029116</v>
+        <v>5.0291160000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>989.876000</v>
+        <v>989.87599999999998</v>
       </c>
       <c r="AW21" s="1">
-        <v>-125.158000</v>
+        <v>-125.158</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>18115.830163</v>
+        <v>18115.830162999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>5.032175</v>
+        <v>5.0321749999999996</v>
       </c>
       <c r="BA21" s="1">
-        <v>999.609000</v>
+        <v>999.60900000000004</v>
       </c>
       <c r="BB21" s="1">
-        <v>-144.129000</v>
+        <v>-144.12899999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>18126.860693</v>
+        <v>18126.860692999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>5.035239</v>
+        <v>5.0352389999999998</v>
       </c>
       <c r="BF21" s="1">
-        <v>1045.290000</v>
+        <v>1045.29</v>
       </c>
       <c r="BG21" s="1">
-        <v>-229.949000</v>
+        <v>-229.94900000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>18138.236471</v>
       </c>
       <c r="BJ21" s="1">
-        <v>5.038399</v>
+        <v>5.0383990000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1125.380000</v>
+        <v>1125.3800000000001</v>
       </c>
       <c r="BL21" s="1">
-        <v>-367.649000</v>
+        <v>-367.649</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>18149.926678</v>
       </c>
       <c r="BO21" s="1">
-        <v>5.041646</v>
+        <v>5.0416460000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1257.890000</v>
+        <v>1257.8900000000001</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-580.494000</v>
+        <v>-580.49400000000003</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>18160.670488</v>
       </c>
       <c r="BT21" s="1">
-        <v>5.044631</v>
+        <v>5.0446309999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1407.200000</v>
+        <v>1407.2</v>
       </c>
       <c r="BV21" s="1">
-        <v>-808.330000</v>
+        <v>-808.33</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>18171.502154</v>
+        <v>18171.502154000002</v>
       </c>
       <c r="BY21" s="1">
-        <v>5.047639</v>
+        <v>5.0476390000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1570.510000</v>
+        <v>1570.51</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1046.030000</v>
+        <v>-1046.03</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>18184.371320</v>
+        <v>18184.371319999998</v>
       </c>
       <c r="CD21" s="1">
-        <v>5.051214</v>
+        <v>5.0512139999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1986.570000</v>
+        <v>1986.57</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1601.520000</v>
+        <v>-1601.52</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>18011.169374</v>
+        <v>18011.169374000001</v>
       </c>
       <c r="B22" s="1">
-        <v>5.003103</v>
+        <v>5.0031030000000003</v>
       </c>
       <c r="C22" s="1">
-        <v>899.064000</v>
+        <v>899.06399999999996</v>
       </c>
       <c r="D22" s="1">
-        <v>-194.123000</v>
+        <v>-194.12299999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>18021.249536</v>
+        <v>18021.249535999999</v>
       </c>
       <c r="G22" s="1">
         <v>5.005903</v>
       </c>
       <c r="H22" s="1">
-        <v>915.597000</v>
+        <v>915.59699999999998</v>
       </c>
       <c r="I22" s="1">
-        <v>-164.299000</v>
+        <v>-164.29900000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>18031.459684</v>
+        <v>18031.459684000001</v>
       </c>
       <c r="L22" s="1">
-        <v>5.008739</v>
+        <v>5.0087390000000003</v>
       </c>
       <c r="M22" s="1">
-        <v>936.863000</v>
+        <v>936.86300000000006</v>
       </c>
       <c r="N22" s="1">
-        <v>-117.641000</v>
+        <v>-117.64100000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>18041.719429</v>
+        <v>18041.719429000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>5.011589</v>
+        <v>5.0115889999999998</v>
       </c>
       <c r="R22" s="1">
-        <v>943.012000</v>
+        <v>943.01199999999994</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.459000</v>
+        <v>-102.459</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>18052.192215</v>
+        <v>18052.192214999999</v>
       </c>
       <c r="V22" s="1">
-        <v>5.014498</v>
+        <v>5.0144979999999997</v>
       </c>
       <c r="W22" s="1">
-        <v>949.192000</v>
+        <v>949.19200000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.055600</v>
+        <v>-89.055599999999998</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>18062.429882</v>
       </c>
       <c r="AA22" s="1">
-        <v>5.017342</v>
+        <v>5.0173420000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>956.171000</v>
+        <v>956.17100000000005</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.007100</v>
+        <v>-80.007099999999994</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>18072.863724</v>
+        <v>18072.863723999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>5.020240</v>
+        <v>5.0202400000000003</v>
       </c>
       <c r="AG22" s="1">
-        <v>961.121000</v>
+        <v>961.12099999999998</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.803600</v>
+        <v>-79.803600000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>18083.460750</v>
+        <v>18083.460749999998</v>
       </c>
       <c r="AK22" s="1">
-        <v>5.023184</v>
+        <v>5.0231839999999996</v>
       </c>
       <c r="AL22" s="1">
-        <v>969.081000</v>
+        <v>969.08100000000002</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.960900</v>
+        <v>-87.960899999999995</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>18094.343503</v>
       </c>
       <c r="AP22" s="1">
-        <v>5.026207</v>
+        <v>5.0262070000000003</v>
       </c>
       <c r="AQ22" s="1">
-        <v>978.343000</v>
+        <v>978.34299999999996</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.235000</v>
+        <v>-103.235</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>18105.124017</v>
+        <v>18105.124016999998</v>
       </c>
       <c r="AU22" s="1">
-        <v>5.029201</v>
+        <v>5.0292009999999996</v>
       </c>
       <c r="AV22" s="1">
-        <v>989.881000</v>
+        <v>989.88099999999997</v>
       </c>
       <c r="AW22" s="1">
-        <v>-125.159000</v>
+        <v>-125.15900000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>18116.188275</v>
       </c>
       <c r="AZ22" s="1">
-        <v>5.032275</v>
+        <v>5.0322750000000003</v>
       </c>
       <c r="BA22" s="1">
-        <v>999.592000</v>
+        <v>999.59199999999998</v>
       </c>
       <c r="BB22" s="1">
-        <v>-144.127000</v>
+        <v>-144.12700000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>18127.219301</v>
+        <v>18127.219301000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>5.035339</v>
+        <v>5.0353389999999996</v>
       </c>
       <c r="BF22" s="1">
-        <v>1045.280000</v>
+        <v>1045.28</v>
       </c>
       <c r="BG22" s="1">
-        <v>-229.944000</v>
+        <v>-229.94399999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>18138.611909</v>
+        <v>18138.611908999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>5.038503</v>
+        <v>5.0385030000000004</v>
       </c>
       <c r="BK22" s="1">
-        <v>1125.400000</v>
+        <v>1125.4000000000001</v>
       </c>
       <c r="BL22" s="1">
-        <v>-367.632000</v>
+        <v>-367.63200000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>18150.367094</v>
+        <v>18150.367094000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>5.041769</v>
+        <v>5.0417690000000004</v>
       </c>
       <c r="BP22" s="1">
-        <v>1257.930000</v>
+        <v>1257.93</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-580.519000</v>
+        <v>-580.51900000000001</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>18160.916008</v>
       </c>
       <c r="BT22" s="1">
-        <v>5.044699</v>
+        <v>5.0446989999999996</v>
       </c>
       <c r="BU22" s="1">
-        <v>1407.160000</v>
+        <v>1407.16</v>
       </c>
       <c r="BV22" s="1">
-        <v>-808.401000</v>
+        <v>-808.40099999999995</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>18171.947529</v>
+        <v>18171.947529000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>5.047763</v>
+        <v>5.0477629999999998</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1570.690000</v>
+        <v>1570.69</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1045.950000</v>
+        <v>-1045.95</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>18184.910007</v>
+        <v>18184.910006999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>5.051364</v>
+        <v>5.0513640000000004</v>
       </c>
       <c r="CE22" s="1">
-        <v>1985.030000</v>
+        <v>1985.03</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1600.200000</v>
+        <v>-1600.2</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>18011.554733</v>
+        <v>18011.554733000001</v>
       </c>
       <c r="B23" s="1">
-        <v>5.003210</v>
+        <v>5.0032100000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>898.925000</v>
+        <v>898.92499999999995</v>
       </c>
       <c r="D23" s="1">
-        <v>-193.951000</v>
+        <v>-193.95099999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>18021.633935</v>
+        <v>18021.633935000002</v>
       </c>
       <c r="G23" s="1">
-        <v>5.006009</v>
+        <v>5.0060089999999997</v>
       </c>
       <c r="H23" s="1">
-        <v>915.451000</v>
+        <v>915.45100000000002</v>
       </c>
       <c r="I23" s="1">
-        <v>-164.421000</v>
+        <v>-164.42099999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>18031.818786</v>
@@ -5908,996 +6324,997 @@
         <v>5.008839</v>
       </c>
       <c r="M23" s="1">
-        <v>936.613000</v>
+        <v>936.61300000000006</v>
       </c>
       <c r="N23" s="1">
-        <v>-117.689000</v>
+        <v>-117.68899999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>18042.069110</v>
+        <v>18042.06911</v>
       </c>
       <c r="Q23" s="1">
-        <v>5.011686</v>
+        <v>5.0116860000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>943.001000</v>
+        <v>943.00099999999998</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.489000</v>
+        <v>-102.489</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>18052.535191</v>
+        <v>18052.535190999999</v>
       </c>
       <c r="V23" s="1">
-        <v>5.014593</v>
+        <v>5.0145929999999996</v>
       </c>
       <c r="W23" s="1">
-        <v>949.228000</v>
+        <v>949.22799999999995</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.087000</v>
+        <v>-89.087000000000003</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>18062.852009</v>
+        <v>18062.852008999998</v>
       </c>
       <c r="AA23" s="1">
-        <v>5.017459</v>
+        <v>5.0174589999999997</v>
       </c>
       <c r="AB23" s="1">
-        <v>956.358000</v>
+        <v>956.35799999999995</v>
       </c>
       <c r="AC23" s="1">
-        <v>-79.973300</v>
+        <v>-79.973299999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>18073.272427</v>
       </c>
       <c r="AF23" s="1">
-        <v>5.020353</v>
+        <v>5.0203530000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>961.107000</v>
+        <v>961.10699999999997</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.818400</v>
+        <v>-79.818399999999997</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>18083.761821</v>
       </c>
       <c r="AK23" s="1">
-        <v>5.023267</v>
+        <v>5.0232669999999997</v>
       </c>
       <c r="AL23" s="1">
-        <v>969.087000</v>
+        <v>969.08699999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.968200</v>
+        <v>-87.968199999999996</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>18094.701615</v>
+        <v>18094.701615000002</v>
       </c>
       <c r="AP23" s="1">
-        <v>5.026306</v>
+        <v>5.0263059999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>978.356000</v>
+        <v>978.35599999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.244000</v>
+        <v>-103.244</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>18105.489104</v>
       </c>
       <c r="AU23" s="1">
-        <v>5.029303</v>
+        <v>5.0293029999999996</v>
       </c>
       <c r="AV23" s="1">
-        <v>989.901000</v>
+        <v>989.90099999999995</v>
       </c>
       <c r="AW23" s="1">
-        <v>-125.166000</v>
+        <v>-125.166</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>18116.546882</v>
+        <v>18116.546881999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>5.032374</v>
+        <v>5.0323739999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>999.582000</v>
+        <v>999.58199999999999</v>
       </c>
       <c r="BB23" s="1">
-        <v>-144.128000</v>
+        <v>-144.12799999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>18127.942963</v>
+        <v>18127.942963000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>5.035540</v>
+        <v>5.0355400000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1045.290000</v>
+        <v>1045.29</v>
       </c>
       <c r="BG23" s="1">
-        <v>-229.956000</v>
+        <v>-229.95599999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>18139.361396</v>
       </c>
       <c r="BJ23" s="1">
-        <v>5.038711</v>
+        <v>5.0387110000000002</v>
       </c>
       <c r="BK23" s="1">
-        <v>1125.350000</v>
+        <v>1125.3499999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-367.574000</v>
+        <v>-367.57400000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>18150.742565</v>
       </c>
       <c r="BO23" s="1">
-        <v>5.041873</v>
+        <v>5.0418729999999998</v>
       </c>
       <c r="BP23" s="1">
-        <v>1257.880000</v>
+        <v>1257.8800000000001</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-580.524000</v>
+        <v>-580.524</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>18161.356951</v>
+        <v>18161.356951000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>5.044821</v>
+        <v>5.0448209999999998</v>
       </c>
       <c r="BU23" s="1">
-        <v>1407.150000</v>
+        <v>1407.15</v>
       </c>
       <c r="BV23" s="1">
-        <v>-808.531000</v>
+        <v>-808.53099999999995</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>18172.406328</v>
+        <v>18172.406328000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>5.047891</v>
+        <v>5.0478909999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1570.600000</v>
+        <v>1570.6</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1045.940000</v>
+        <v>-1045.94</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>18185.757639</v>
+        <v>18185.757638999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>5.051599</v>
+        <v>5.0515990000000004</v>
       </c>
       <c r="CE23" s="1">
-        <v>1986.730000</v>
+        <v>1986.73</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1601.020000</v>
+        <v>-1601.02</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>18011.903917</v>
       </c>
       <c r="B24" s="1">
-        <v>5.003307</v>
+        <v>5.0033070000000004</v>
       </c>
       <c r="C24" s="1">
-        <v>899.201000</v>
+        <v>899.20100000000002</v>
       </c>
       <c r="D24" s="1">
-        <v>-194.131000</v>
+        <v>-194.131</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>18021.981167</v>
+        <v>18021.981167000002</v>
       </c>
       <c r="G24" s="1">
-        <v>5.006106</v>
+        <v>5.0061059999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>915.090000</v>
+        <v>915.09</v>
       </c>
       <c r="I24" s="1">
-        <v>-164.346000</v>
+        <v>-164.346</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>18032.157554</v>
+        <v>18032.157554000001</v>
       </c>
       <c r="L24" s="1">
-        <v>5.008933</v>
+        <v>5.0089329999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>936.735000</v>
+        <v>936.73500000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-117.497000</v>
+        <v>-117.497</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>18042.424244</v>
+        <v>18042.424244000002</v>
       </c>
       <c r="Q24" s="1">
-        <v>5.011785</v>
+        <v>5.0117849999999997</v>
       </c>
       <c r="R24" s="1">
-        <v>942.979000</v>
+        <v>942.97900000000004</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.485000</v>
+        <v>-102.485</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>18052.954839</v>
+        <v>18052.954839000002</v>
       </c>
       <c r="V24" s="1">
-        <v>5.014710</v>
+        <v>5.01471</v>
       </c>
       <c r="W24" s="1">
-        <v>949.191000</v>
+        <v>949.19100000000003</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.053100</v>
+        <v>-89.053100000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>18063.124503</v>
+        <v>18063.124502999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>5.017535</v>
+        <v>5.0175349999999996</v>
       </c>
       <c r="AB24" s="1">
-        <v>956.237000</v>
+        <v>956.23699999999997</v>
       </c>
       <c r="AC24" s="1">
-        <v>-79.925300</v>
+        <v>-79.925299999999993</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>18073.567050</v>
+        <v>18073.567050000001</v>
       </c>
       <c r="AF24" s="1">
         <v>5.020435</v>
       </c>
       <c r="AG24" s="1">
-        <v>961.169000</v>
+        <v>961.16899999999998</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.800700</v>
+        <v>-79.800700000000006</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>18084.112493</v>
+        <v>18084.112493000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>5.023365</v>
+        <v>5.0233650000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>969.076000</v>
+        <v>969.07600000000002</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.961700</v>
+        <v>-87.961699999999993</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>18095.061215</v>
+        <v>18095.061215000002</v>
       </c>
       <c r="AP24" s="1">
-        <v>5.026406</v>
+        <v>5.0264059999999997</v>
       </c>
       <c r="AQ24" s="1">
-        <v>978.363000</v>
+        <v>978.36300000000006</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.209000</v>
+        <v>-103.209</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>18105.849664</v>
+        <v>18105.849664000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>5.029403</v>
+        <v>5.0294030000000003</v>
       </c>
       <c r="AV24" s="1">
-        <v>989.886000</v>
+        <v>989.88599999999997</v>
       </c>
       <c r="AW24" s="1">
-        <v>-125.168000</v>
+        <v>-125.16800000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>18117.268565</v>
+        <v>18117.268564999998</v>
       </c>
       <c r="AZ24" s="1">
-        <v>5.032575</v>
+        <v>5.0325749999999996</v>
       </c>
       <c r="BA24" s="1">
-        <v>999.593000</v>
+        <v>999.59299999999996</v>
       </c>
       <c r="BB24" s="1">
-        <v>-144.128000</v>
+        <v>-144.12799999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>18128.331332</v>
+        <v>18128.331332000002</v>
       </c>
       <c r="BE24" s="1">
-        <v>5.035648</v>
+        <v>5.0356480000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1045.270000</v>
+        <v>1045.27</v>
       </c>
       <c r="BG24" s="1">
-        <v>-229.937000</v>
+        <v>-229.93700000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>18139.736372</v>
+        <v>18139.736371999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>5.038816</v>
+        <v>5.0388159999999997</v>
       </c>
       <c r="BK24" s="1">
-        <v>1125.410000</v>
+        <v>1125.4100000000001</v>
       </c>
       <c r="BL24" s="1">
-        <v>-367.625000</v>
+        <v>-367.625</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>18151.164660</v>
+        <v>18151.164659999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>5.041990</v>
+        <v>5.0419900000000002</v>
       </c>
       <c r="BP24" s="1">
-        <v>1257.900000</v>
+        <v>1257.9000000000001</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-580.504000</v>
+        <v>-580.50400000000002</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>18162.082311</v>
+        <v>18162.082310999998</v>
       </c>
       <c r="BT24" s="1">
-        <v>5.045023</v>
+        <v>5.0450229999999996</v>
       </c>
       <c r="BU24" s="1">
-        <v>1407.000000</v>
+        <v>1407</v>
       </c>
       <c r="BV24" s="1">
-        <v>-808.550000</v>
+        <v>-808.55</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>18173.132503</v>
+        <v>18173.132503000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>5.048092</v>
+        <v>5.0480919999999996</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1570.620000</v>
+        <v>1570.62</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1046.050000</v>
+        <v>-1046.05</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>18185.988775</v>
+        <v>18185.988775000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>5.051664</v>
+        <v>5.0516639999999997</v>
       </c>
       <c r="CE24" s="1">
-        <v>1986.560000</v>
+        <v>1986.56</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1600.980000</v>
+        <v>-1600.98</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>18012.246652</v>
+        <v>18012.246652000002</v>
       </c>
       <c r="B25" s="1">
-        <v>5.003402</v>
+        <v>5.0034020000000003</v>
       </c>
       <c r="C25" s="1">
-        <v>898.932000</v>
+        <v>898.93200000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>-193.999000</v>
+        <v>-193.999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>18022.327343</v>
+        <v>18022.327343000001</v>
       </c>
       <c r="G25" s="1">
         <v>5.006202</v>
       </c>
       <c r="H25" s="1">
-        <v>915.334000</v>
+        <v>915.33399999999995</v>
       </c>
       <c r="I25" s="1">
-        <v>-164.227000</v>
+        <v>-164.227</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>18032.575681</v>
+        <v>18032.575680999998</v>
       </c>
       <c r="L25" s="1">
-        <v>5.009049</v>
+        <v>5.0090490000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>936.818000</v>
+        <v>936.81799999999998</v>
       </c>
       <c r="N25" s="1">
-        <v>-117.585000</v>
+        <v>-117.58499999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>18042.849812</v>
       </c>
       <c r="Q25" s="1">
-        <v>5.011903</v>
+        <v>5.0119030000000002</v>
       </c>
       <c r="R25" s="1">
-        <v>942.966000</v>
+        <v>942.96600000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.460000</v>
+        <v>-102.46</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>18053.246950</v>
+        <v>18053.246950000001</v>
       </c>
       <c r="V25" s="1">
-        <v>5.014791</v>
+        <v>5.0147909999999998</v>
       </c>
       <c r="W25" s="1">
-        <v>949.157000</v>
+        <v>949.15700000000004</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.084500</v>
+        <v>-89.084500000000006</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>18063.471514</v>
+        <v>18063.471514000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>5.017631</v>
+        <v>5.0176309999999997</v>
       </c>
       <c r="AB25" s="1">
-        <v>956.309000</v>
+        <v>956.30899999999997</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.079000</v>
+        <v>-80.078999999999994</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>18073.898876</v>
+        <v>18073.898875999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>5.020527</v>
+        <v>5.0205270000000004</v>
       </c>
       <c r="AG25" s="1">
-        <v>961.168000</v>
+        <v>961.16800000000001</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.021900</v>
+        <v>-80.021900000000002</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>18084.459692</v>
       </c>
       <c r="AK25" s="1">
-        <v>5.023461</v>
+        <v>5.0234610000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>969.060000</v>
+        <v>969.06</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.975000</v>
+        <v>-87.974999999999994</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>18095.784350</v>
+        <v>18095.784350000002</v>
       </c>
       <c r="AP25" s="1">
-        <v>5.026607</v>
+        <v>5.0266070000000003</v>
       </c>
       <c r="AQ25" s="1">
-        <v>978.369000</v>
+        <v>978.36900000000003</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.259000</v>
+        <v>-103.259</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>18106.585727</v>
+        <v>18106.585727000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>5.029607</v>
+        <v>5.0296070000000004</v>
       </c>
       <c r="AV25" s="1">
-        <v>989.865000</v>
+        <v>989.86500000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-125.168000</v>
+        <v>-125.16800000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>18117.645026</v>
+        <v>18117.645025999998</v>
       </c>
       <c r="AZ25" s="1">
-        <v>5.032679</v>
+        <v>5.0326789999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>999.574000</v>
+        <v>999.57399999999996</v>
       </c>
       <c r="BB25" s="1">
-        <v>-144.127000</v>
+        <v>-144.12700000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>18128.722210</v>
+        <v>18128.72221</v>
       </c>
       <c r="BE25" s="1">
-        <v>5.035756</v>
+        <v>5.0357560000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1045.280000</v>
+        <v>1045.28</v>
       </c>
       <c r="BG25" s="1">
-        <v>-229.936000</v>
+        <v>-229.93600000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>18140.114787</v>
+        <v>18140.114786999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>5.038921</v>
+        <v>5.0389210000000002</v>
       </c>
       <c r="BK25" s="1">
-        <v>1125.330000</v>
+        <v>1125.33</v>
       </c>
       <c r="BL25" s="1">
-        <v>-367.563000</v>
+        <v>-367.56299999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>18151.865013</v>
+        <v>18151.865012999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>5.042185</v>
+        <v>5.0421849999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1257.890000</v>
+        <v>1257.8900000000001</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-580.539000</v>
+        <v>-580.53899999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>18162.200645</v>
+        <v>18162.200645000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>5.045056</v>
+        <v>5.0450559999999998</v>
       </c>
       <c r="BU25" s="1">
-        <v>1406.970000</v>
+        <v>1406.97</v>
       </c>
       <c r="BV25" s="1">
-        <v>-808.591000</v>
+        <v>-808.59100000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>18173.280775</v>
+        <v>18173.280774999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>5.048134</v>
+        <v>5.0481340000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1570.550000</v>
+        <v>1570.55</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1045.950000</v>
+        <v>-1045.95</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>18186.508582</v>
+        <v>18186.508581999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>5.051808</v>
+        <v>5.0518080000000003</v>
       </c>
       <c r="CE25" s="1">
-        <v>1985.310000</v>
+        <v>1985.31</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1599.940000</v>
+        <v>-1599.94</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>18012.665280</v>
+        <v>18012.665280000001</v>
       </c>
       <c r="B26" s="1">
-        <v>5.003518</v>
+        <v>5.0035179999999997</v>
       </c>
       <c r="C26" s="1">
-        <v>898.992000</v>
+        <v>898.99199999999996</v>
       </c>
       <c r="D26" s="1">
-        <v>-193.956000</v>
+        <v>-193.95599999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>18022.743022</v>
+        <v>18022.743021999999</v>
       </c>
       <c r="G26" s="1">
-        <v>5.006318</v>
+        <v>5.0063180000000003</v>
       </c>
       <c r="H26" s="1">
-        <v>915.252000</v>
+        <v>915.25199999999995</v>
       </c>
       <c r="I26" s="1">
-        <v>-164.250000</v>
+        <v>-164.25</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>18032.861377</v>
+        <v>18032.861377000001</v>
       </c>
       <c r="L26" s="1">
-        <v>5.009128</v>
+        <v>5.0091279999999996</v>
       </c>
       <c r="M26" s="1">
-        <v>936.587000</v>
+        <v>936.58699999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-117.808000</v>
+        <v>-117.80800000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>18043.125589</v>
+        <v>18043.125588999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>5.011979</v>
+        <v>5.0119790000000002</v>
       </c>
       <c r="R26" s="1">
-        <v>942.966000</v>
+        <v>942.96600000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.461000</v>
+        <v>-102.461</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>18053.591173</v>
+        <v>18053.591173000001</v>
       </c>
       <c r="V26" s="1">
-        <v>5.014886</v>
+        <v>5.0148859999999997</v>
       </c>
       <c r="W26" s="1">
-        <v>949.197000</v>
+        <v>949.197</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.054700</v>
+        <v>-89.054699999999997</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>18063.819672</v>
+        <v>18063.819672000001</v>
       </c>
       <c r="AA26" s="1">
         <v>5.017728</v>
       </c>
       <c r="AB26" s="1">
-        <v>956.197000</v>
+        <v>956.197</v>
       </c>
       <c r="AC26" s="1">
-        <v>-79.959400</v>
+        <v>-79.959400000000002</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>18074.256490</v>
+        <v>18074.25649</v>
       </c>
       <c r="AF26" s="1">
-        <v>5.020627</v>
+        <v>5.0206270000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>961.033000</v>
+        <v>961.03300000000002</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.726000</v>
+        <v>-79.725999999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>18085.155845</v>
+        <v>18085.155845000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>5.023654</v>
+        <v>5.0236539999999996</v>
       </c>
       <c r="AL26" s="1">
-        <v>969.085000</v>
+        <v>969.08500000000004</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.967900</v>
+        <v>-87.9679</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>18096.171584</v>
       </c>
       <c r="AP26" s="1">
-        <v>5.026714</v>
+        <v>5.0267140000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>978.366000</v>
+        <v>978.36599999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.222000</v>
+        <v>-103.22199999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>18106.969151</v>
+        <v>18106.969151000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>5.029714</v>
+        <v>5.0297140000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>989.886000</v>
+        <v>989.88599999999997</v>
       </c>
       <c r="AW26" s="1">
-        <v>-125.181000</v>
+        <v>-125.181</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>18118.023473</v>
+        <v>18118.023473000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>5.032784</v>
+        <v>5.0327840000000004</v>
       </c>
       <c r="BA26" s="1">
-        <v>999.593000</v>
+        <v>999.59299999999996</v>
       </c>
       <c r="BB26" s="1">
-        <v>-144.136000</v>
+        <v>-144.136</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>18129.376433</v>
+        <v>18129.376433000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>5.035938</v>
+        <v>5.0359379999999998</v>
       </c>
       <c r="BF26" s="1">
-        <v>1045.280000</v>
+        <v>1045.28</v>
       </c>
       <c r="BG26" s="1">
-        <v>-229.948000</v>
+        <v>-229.94800000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>18140.801778</v>
+        <v>18140.801778000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>5.039112</v>
+        <v>5.0391120000000003</v>
       </c>
       <c r="BK26" s="1">
-        <v>1125.340000</v>
+        <v>1125.3399999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-367.583000</v>
+        <v>-367.58300000000003</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>18152.001411</v>
+        <v>18152.001411000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>5.042223</v>
+        <v>5.0422229999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1257.860000</v>
+        <v>1257.8599999999999</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-580.507000</v>
+        <v>-580.50699999999995</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>18162.641093</v>
+        <v>18162.641092999998</v>
       </c>
       <c r="BT26" s="1">
-        <v>5.045178</v>
+        <v>5.0451779999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1406.890000</v>
+        <v>1406.89</v>
       </c>
       <c r="BV26" s="1">
-        <v>-808.627000</v>
+        <v>-808.62699999999995</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>18173.704391</v>
+        <v>18173.704390999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>5.048251</v>
+        <v>5.0482509999999996</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1570.580000</v>
+        <v>1570.58</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1045.900000</v>
+        <v>-1045.9000000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>18187.024421</v>
+        <v>18187.024420999998</v>
       </c>
       <c r="CD26" s="1">
-        <v>5.051951</v>
+        <v>5.0519509999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1984.420000</v>
+        <v>1984.42</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1601.430000</v>
+        <v>-1601.43</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>